--- a/ml-service/Dataset_Wisata_Madura.xlsx
+++ b/ml-service/Dataset_Wisata_Madura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dokumen\Imam\Pribadi\SIB\Capstone\back-end\ml-service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEB53D9-52D0-4EE4-9E50-4CEA713E0BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA1B8BC-8841-466E-97ED-01406827C336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>rating</t>
   </si>
   <si>
-    <t>Lat</t>
-  </si>
-  <si>
     <t>lon</t>
   </si>
   <si>
@@ -1254,6 +1251,9 @@
   </si>
   <si>
     <t>Parkir, Toilet, Kuliner, Tempat Ibadah</t>
+  </si>
+  <si>
+    <t>lat</t>
   </si>
 </sst>
 </file>
@@ -1579,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1631,10 +1631,10 @@
         <v>10</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="2" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="7">
         <v>0.33333333333333331</v>
@@ -1663,19 +1663,19 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="8">
         <v>0</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="6">
         <v>-7.0562531760783296</v>
@@ -1695,13 +1695,13 @@
     </row>
     <row r="3" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
@@ -1710,19 +1710,19 @@
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="H3" s="8">
         <v>0</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="6">
         <v>-7.1593806927427703</v>
@@ -1742,13 +1742,13 @@
     </row>
     <row r="4" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="7">
         <v>0.375</v>
@@ -1757,19 +1757,19 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H4" s="8">
         <v>15000</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="K4" s="6">
         <v>-7.16032882308778</v>
@@ -1789,13 +1789,13 @@
     </row>
     <row r="5" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="K5" s="6">
         <v>-6.97275487235685</v>
@@ -1836,13 +1836,13 @@
     </row>
     <row r="6" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -1851,10 +1851,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="H6" s="8">
         <v>0</v>
@@ -1863,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" s="6">
         <v>-6.9557206983162896</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="7" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1898,19 +1898,19 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="8">
         <v>10000</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="6">
         <v>-6.8848477296647799</v>
@@ -1930,13 +1930,13 @@
     </row>
     <row r="8" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>7</v>
@@ -1945,10 +1945,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="6">
         <v>-7.0422093470048202</v>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="9" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D9" s="7">
         <v>0.29166666666666669</v>
@@ -1992,10 +1992,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="6">
         <v>-7.0200444155317099</v>
@@ -2024,13 +2024,13 @@
     </row>
     <row r="10" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
@@ -2039,10 +2039,10 @@
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10" s="6">
         <v>-7.1104119914174104</v>
@@ -2071,13 +2071,13 @@
     </row>
     <row r="11" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
@@ -2086,10 +2086,10 @@
         <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11" s="6">
         <v>-7.0262905809305298</v>
@@ -2118,13 +2118,13 @@
     </row>
     <row r="12" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D12" s="7">
         <v>0.29166666666666669</v>
@@ -2133,19 +2133,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="8">
         <v>10000</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="6">
         <v>-6.8841857011571301</v>
@@ -2165,13 +2165,13 @@
     </row>
     <row r="13" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
@@ -2180,19 +2180,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" s="8">
         <v>10000</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13" s="6">
         <v>-6.9852237321306498</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="14" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="D14" s="7">
         <v>0.29166666666666669</v>
@@ -2227,19 +2227,19 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="8">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="K14" s="6">
         <v>-6.8895568455788601</v>
@@ -2259,13 +2259,13 @@
     </row>
     <row r="15" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>7</v>
@@ -2274,19 +2274,19 @@
         <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="8">
         <v>10000</v>
       </c>
       <c r="I15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="K15" s="6">
         <v>-6.8831003144336202</v>
@@ -2306,13 +2306,13 @@
     </row>
     <row r="16" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
@@ -2321,10 +2321,10 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="8">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16" s="6">
         <v>-6.8931457743543003</v>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="17" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="D17" s="7">
         <v>0.29166666666666669</v>
@@ -2368,19 +2368,19 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="8">
         <v>5000</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17" s="6">
         <v>-7.1587073075734597</v>
@@ -2400,13 +2400,13 @@
     </row>
     <row r="18" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="8">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="6">
         <v>-7.1221859769528102</v>
@@ -2447,13 +2447,13 @@
     </row>
     <row r="19" spans="1:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D19" s="7">
         <v>0.29166666666666669</v>
@@ -2462,19 +2462,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="8">
         <v>5000</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="6">
         <v>-7.0428586449504298</v>
@@ -2494,13 +2494,13 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D20" s="7">
         <v>0.33333333333333331</v>
@@ -2509,19 +2509,19 @@
         <v>0.5</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="8">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" s="6">
         <v>-7.0231358734565399</v>
@@ -2541,13 +2541,13 @@
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
@@ -2556,19 +2556,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H21" s="8">
         <v>0</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K21" s="6">
         <v>-7.0400722493264398</v>
@@ -2588,13 +2588,13 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
@@ -2603,19 +2603,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="8">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K22" s="6">
         <v>-6.9485208776454499</v>
@@ -2635,13 +2635,13 @@
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
@@ -2650,19 +2650,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="8">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23" s="6">
         <v>-7.0279255124262301</v>
@@ -2682,13 +2682,13 @@
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
@@ -2697,19 +2697,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="8">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24" s="6">
         <v>-7.15787248715153</v>
@@ -2729,13 +2729,13 @@
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
@@ -2744,19 +2744,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" s="8">
         <v>0</v>
       </c>
       <c r="I25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="K25" s="6">
         <v>-7.0410514919170302</v>
@@ -2776,13 +2776,13 @@
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="D26" s="7">
         <v>0.33333333333333331</v>
@@ -2791,19 +2791,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H26" s="8">
         <v>3000</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K26" s="6">
         <v>-7.0476693356659199</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="D27" s="7">
         <v>0.33333333333333331</v>
@@ -2838,10 +2838,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H27" s="8">
         <v>0</v>
@@ -2850,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27" s="6">
         <v>-7.0332183081351696</v>
@@ -2870,13 +2870,13 @@
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
@@ -2885,19 +2885,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" s="8">
         <v>5000</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K28" s="6">
         <v>-6.8823135728683003</v>
@@ -2917,13 +2917,13 @@
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>7</v>
@@ -2932,10 +2932,10 @@
         <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H29" s="8">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>7</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29" s="6">
         <v>-6.8874765969752501</v>
@@ -2964,13 +2964,13 @@
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>7</v>
@@ -2979,19 +2979,19 @@
         <v>7</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="8">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K30" s="6">
         <v>-7.0129388689591803</v>
@@ -3011,13 +3011,13 @@
     </row>
     <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="D31" s="7">
         <v>0.33333333333333331</v>
@@ -3026,19 +3026,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H31" s="8">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K31" s="6">
         <v>-7.1552278232812503</v>
@@ -3058,13 +3058,13 @@
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="D32" s="7">
         <v>0</v>
@@ -3073,19 +3073,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" s="8">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="6">
         <v>-7.0435006144455201</v>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="33" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="D33" s="7">
         <v>0.25</v>
@@ -3120,19 +3120,19 @@
         <v>0.75</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H33" s="8">
         <v>5000</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K33" s="6">
         <v>-6.8923677864814401</v>
@@ -3152,13 +3152,13 @@
     </row>
     <row r="34" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D34" s="7">
         <v>0</v>
@@ -3167,19 +3167,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H34" s="8">
         <v>5000</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K34" s="6">
         <v>-7.1945282838153899</v>
@@ -3199,13 +3199,13 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D35" s="7">
         <v>0.25</v>
@@ -3214,19 +3214,19 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H35" s="8">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K35" s="6">
         <v>-6.8974157393115201</v>
@@ -3246,13 +3246,13 @@
     </row>
     <row r="36" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>7</v>
@@ -3261,19 +3261,19 @@
         <v>7</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H36" s="8">
         <v>10000</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36" s="6">
         <v>-7.3076045456303298</v>
@@ -3293,13 +3293,13 @@
     </row>
     <row r="37" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="D37" s="7">
         <v>0</v>
@@ -3308,19 +3308,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H37" s="8">
         <v>10000</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37" s="6">
         <v>-7.2180957699475101</v>
@@ -3340,13 +3340,13 @@
     </row>
     <row r="38" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="D38" s="7">
         <v>0.3125</v>
@@ -3355,19 +3355,19 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H38" s="8">
         <v>10000</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K38" s="6">
         <v>-6.8887427342836398</v>
@@ -3387,13 +3387,13 @@
     </row>
     <row r="39" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="D39" s="7">
         <v>0.375</v>
@@ -3402,19 +3402,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H39" s="8">
         <v>0</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K39" s="6">
         <v>-7.1069186227886503</v>
@@ -3434,13 +3434,13 @@
     </row>
     <row r="40" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>7</v>
@@ -3449,10 +3449,10 @@
         <v>7</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40" s="8">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40" s="6">
         <v>-7.2090514543004396</v>
@@ -3481,13 +3481,13 @@
     </row>
     <row r="41" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
@@ -3496,19 +3496,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="8">
         <v>0</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K41" s="6">
         <v>-7.2082701422971098</v>
@@ -3528,13 +3528,13 @@
     </row>
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>177</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>7</v>
@@ -3543,19 +3543,19 @@
         <v>7</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="8">
         <v>0</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K42" s="6">
         <v>-7.1930537401677501</v>
@@ -3575,13 +3575,13 @@
     </row>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>181</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>7</v>
@@ -3590,19 +3590,19 @@
         <v>7</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H43" s="8">
         <v>0</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43" s="6">
         <v>-6.8859530486375498</v>
@@ -3622,13 +3622,13 @@
     </row>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="D44" s="7">
         <v>0.33333333333333331</v>
@@ -3637,19 +3637,19 @@
         <v>0.6875</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H44" s="8">
         <v>0</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44" s="6">
         <v>-6.9126175541528303</v>
@@ -3669,13 +3669,13 @@
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="D45" s="7">
         <v>0.33333333333333331</v>
@@ -3684,19 +3684,19 @@
         <v>0.875</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H45" s="8">
         <v>0</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="6">
         <v>-7.1916661336380301</v>
@@ -3716,13 +3716,13 @@
     </row>
     <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="D46" s="7">
         <v>0.33333333333333331</v>
@@ -3731,10 +3731,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F46" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="H46" s="8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>7</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K46" s="6">
         <v>-6.8966708003211199</v>
@@ -3763,13 +3763,13 @@
     </row>
     <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="D47" s="7">
         <v>0</v>
@@ -3778,19 +3778,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H47" s="8">
         <v>0</v>
       </c>
       <c r="I47" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J47" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="K47" s="6">
         <v>-6.9120880608692197</v>
@@ -3810,13 +3810,13 @@
     </row>
     <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="D48" s="7">
         <v>0.33333333333333331</v>
@@ -3825,19 +3825,19 @@
         <v>0</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H48" s="8">
         <v>0</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K48" s="6">
         <v>-7.1916775824052701</v>
@@ -3857,13 +3857,13 @@
     </row>
     <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="D49" s="7">
         <v>0.29166666666666669</v>
@@ -3872,19 +3872,19 @@
         <v>0.6875</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H49" s="8">
         <v>0</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K49" s="6">
         <v>-7.1907955594338997</v>
@@ -3904,13 +3904,13 @@
     </row>
     <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="D50" s="7">
         <v>0.33333333333333331</v>
@@ -3919,19 +3919,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H50" s="8">
         <v>0</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K50" s="6">
         <v>-7.1960907913387802</v>
@@ -3951,13 +3951,13 @@
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="D51" s="7">
         <v>0</v>
@@ -3966,10 +3966,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H51" s="8">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>7</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K51" s="6">
         <v>-7.2198290456833796</v>
@@ -3998,13 +3998,13 @@
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>7</v>
@@ -4013,19 +4013,19 @@
         <v>7</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H52" s="8">
         <v>0</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K52" s="6">
         <v>-6.8919108951761396</v>
@@ -4045,13 +4045,13 @@
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="D53" s="7">
         <v>0.3125</v>
@@ -4060,19 +4060,19 @@
         <v>0.6875</v>
       </c>
       <c r="F53" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>219</v>
       </c>
       <c r="H53" s="8">
         <v>25000</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K53" s="6">
         <v>-7.1938813677752904</v>
@@ -4092,13 +4092,13 @@
     </row>
     <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C54" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="D54" s="7">
         <v>0</v>
@@ -4107,19 +4107,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H54" s="8">
         <v>0</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K54" s="6">
         <v>-7.2048084605951397</v>
@@ -4139,13 +4139,13 @@
     </row>
     <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="D55" s="7">
         <v>0.22916666666666666</v>
@@ -4154,19 +4154,19 @@
         <v>0.75</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H55" s="8">
         <v>5000</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K55" s="6">
         <v>-7.1648457439274704</v>
@@ -4186,13 +4186,13 @@
     </row>
     <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>229</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>230</v>
       </c>
       <c r="D56" s="7">
         <v>0.20833333333333334</v>
@@ -4201,19 +4201,19 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H56" s="8">
         <v>2000</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K56" s="6">
         <v>-7.2331874095648798</v>
@@ -4233,13 +4233,13 @@
     </row>
     <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="D57" s="7">
         <v>0.29166666666666669</v>
@@ -4248,19 +4248,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H57" s="8">
         <v>2000</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K57" s="6">
         <v>-7.1372637816611704</v>
@@ -4280,13 +4280,13 @@
     </row>
     <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="D58" s="7">
         <v>0.29166666666666669</v>
@@ -4295,19 +4295,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H58" s="8">
         <v>0</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K58" s="6">
         <v>-7.25049906568014</v>
@@ -4327,13 +4327,13 @@
     </row>
     <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="D59" s="7">
         <v>0.25</v>
@@ -4342,19 +4342,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H59" s="8">
         <v>5000</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K59" s="6">
         <v>-7.0764782339138197</v>
@@ -4374,13 +4374,13 @@
     </row>
     <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="D60" s="7">
         <v>0</v>
@@ -4389,19 +4389,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H60" s="8">
         <v>3000</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K60" s="6">
         <v>-7.1794255086479</v>
@@ -4421,13 +4421,13 @@
     </row>
     <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="D61" s="7">
         <v>0.29166666666666669</v>
@@ -4436,19 +4436,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H61" s="8">
         <v>5000</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K61" s="6">
         <v>-7.0226766047011804</v>
@@ -4468,13 +4468,13 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="D62" s="7">
         <v>0.33333333333333331</v>
@@ -4483,19 +4483,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H62" s="8">
         <v>10000</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K62" s="6">
         <v>-7.1104318419558101</v>
@@ -4515,13 +4515,13 @@
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>257</v>
       </c>
       <c r="D63" s="7">
         <v>0</v>
@@ -4530,19 +4530,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H63" s="8">
         <v>10000</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K63" s="6">
         <v>-7.0266986077407596</v>
@@ -4562,13 +4562,13 @@
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="D64" s="7">
         <v>0.29166666666666669</v>
@@ -4577,19 +4577,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H64" s="8">
         <v>5000</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K64" s="6">
         <v>-7.0497456251916102</v>
@@ -4609,13 +4609,13 @@
     </row>
     <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="D65" s="7">
         <v>0.33333333333333331</v>
@@ -4624,19 +4624,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65" s="8">
         <v>0</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K65" s="6">
         <v>-7.0979316704125504</v>
@@ -4656,13 +4656,13 @@
     </row>
     <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>268</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>7</v>
@@ -4671,19 +4671,19 @@
         <v>7</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H66" s="8">
         <v>0</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K66" s="6">
         <v>-7.1509583079350101</v>
@@ -4703,13 +4703,13 @@
     </row>
     <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>270</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>271</v>
       </c>
       <c r="D67" s="7">
         <v>0.3125</v>
@@ -4718,19 +4718,19 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H67" s="8">
         <v>0</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K67" s="6">
         <v>-7.1597695479385397</v>
@@ -4750,13 +4750,13 @@
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="D68" s="7">
         <v>0.29166666666666669</v>
@@ -4765,19 +4765,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H68" s="8">
         <v>5000</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K68" s="6">
         <v>-7.2062618978593402</v>
@@ -4797,13 +4797,13 @@
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="D69" s="7">
         <v>0.33333333333333331</v>
@@ -4812,19 +4812,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H69" s="8">
         <v>0</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69" s="6">
         <v>-7.1671868749746102</v>
@@ -4844,13 +4844,13 @@
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>7</v>
@@ -4859,19 +4859,19 @@
         <v>7</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H70" s="8">
         <v>10000</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K70" s="6">
         <v>-6.9831184000000004</v>
@@ -4891,13 +4891,13 @@
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="D71" s="7">
         <v>0</v>
@@ -4906,19 +4906,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H71" s="8">
         <v>25000</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K71" s="6">
         <v>-7.2014285999999998</v>
@@ -4938,13 +4938,13 @@
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>290</v>
       </c>
       <c r="D72" s="7">
         <v>0.33333333333333331</v>
@@ -4953,19 +4953,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H72" s="8">
         <v>0</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K72" s="6">
         <v>-6.9957940000000001</v>
@@ -4985,13 +4985,13 @@
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>7</v>
@@ -5000,19 +5000,19 @@
         <v>7</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73" s="8">
         <v>5000</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73" s="6">
         <v>-7.0191901999999997</v>
@@ -5032,13 +5032,13 @@
     </row>
     <row r="74" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="D74" s="7">
         <v>0.33333333333333331</v>
@@ -5047,19 +5047,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H74" s="8">
         <v>15000</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K74" s="6">
         <v>-6.8982077000000004</v>
@@ -5079,13 +5079,13 @@
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="D75" s="7">
         <v>0.29166666666666669</v>
@@ -5094,19 +5094,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H75" s="8">
         <v>10000</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K75" s="6">
         <v>-7.0934799999999996</v>
@@ -5126,13 +5126,13 @@
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="D76" s="7">
         <v>0</v>
@@ -5141,19 +5141,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H76" s="8">
         <v>20000</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76" s="6">
         <v>-6.8791954000000004</v>
@@ -5173,13 +5173,13 @@
     </row>
     <row r="77" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="D77" s="7">
         <v>0.33333333333333331</v>
@@ -5188,19 +5188,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H77" s="8">
         <v>5000</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K77" s="6">
         <v>-6.9178648000000003</v>
@@ -5220,13 +5220,13 @@
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="D78" s="7">
         <v>0</v>
@@ -5235,19 +5235,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H78" s="8">
         <v>5000</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K78" s="6">
         <v>-7.1751702999999996</v>
@@ -5267,13 +5267,13 @@
     </row>
     <row r="79" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="D79" s="7">
         <v>0</v>
@@ -5282,19 +5282,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H79" s="8">
         <v>20000</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K79" s="6">
         <v>-6.8861093999999996</v>
@@ -5314,13 +5314,13 @@
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="D80" s="7">
         <v>0</v>
@@ -5329,19 +5329,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H80" s="8">
         <v>0</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K80" s="6">
         <v>-6.8703621999999998</v>
@@ -5361,13 +5361,13 @@
     </row>
     <row r="81" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>324</v>
       </c>
       <c r="D81" s="7">
         <v>0.29166666666666669</v>
@@ -5376,19 +5376,19 @@
         <v>0.875</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H81" s="8">
         <v>0</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81" s="6">
         <v>-6.9705250000000003</v>
@@ -5408,13 +5408,13 @@
     </row>
     <row r="82" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="D82" s="7">
         <v>0.25</v>
@@ -5423,19 +5423,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H82" s="8">
         <v>10000</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K82" s="6">
         <v>-7.0789985</v>
@@ -5455,13 +5455,13 @@
     </row>
     <row r="83" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="D83" s="7">
         <v>0.20833333333333334</v>
@@ -5470,19 +5470,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H83" s="8">
         <v>10000</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K83" s="6">
         <v>-7.0108300999999997</v>
@@ -5502,13 +5502,13 @@
     </row>
     <row r="84" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="D84" s="7">
         <v>0.29166666666666669</v>
@@ -5517,19 +5517,19 @@
         <v>0.91597222222222219</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H84" s="8">
         <v>10000</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K84" s="6">
         <v>-7.0152004999999997</v>
@@ -5549,13 +5549,13 @@
     </row>
     <row r="85" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="D85" s="7">
         <v>0.29166666666666669</v>
@@ -5564,19 +5564,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H85" s="8">
         <v>10000</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K85" s="6">
         <v>-7.0141752000000004</v>
@@ -5596,13 +5596,13 @@
     </row>
     <row r="86" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="D86" s="7">
         <v>0.33333333333333331</v>
@@ -5611,19 +5611,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H86" s="8">
         <v>0</v>
       </c>
       <c r="I86" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="J86" s="9" t="s">
         <v>344</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>345</v>
       </c>
       <c r="K86" s="6">
         <v>-6.9902442999999996</v>
@@ -5643,13 +5643,13 @@
     </row>
     <row r="87" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="D87" s="7">
         <v>0.25</v>
@@ -5658,19 +5658,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H87" s="8">
         <v>5000</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K87" s="6">
         <v>-7.0071139000000002</v>
@@ -5690,13 +5690,13 @@
     </row>
     <row r="88" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>351</v>
       </c>
       <c r="D88" s="7">
         <v>0</v>
@@ -5705,19 +5705,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H88" s="8">
         <v>0</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K88" s="6">
         <v>-7.0082554000000004</v>
@@ -5737,13 +5737,13 @@
     </row>
     <row r="89" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>354</v>
       </c>
       <c r="D89" s="7">
         <v>0</v>
@@ -5752,19 +5752,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H89" s="8">
         <v>10000</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K89" s="6">
         <v>-7.0280481999999997</v>
@@ -5784,13 +5784,13 @@
     </row>
     <row r="90" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="D90" s="7">
         <v>0</v>
@@ -5799,19 +5799,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H90" s="8">
         <v>10000</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K90" s="6">
         <v>-6.9746915999999999</v>
@@ -5831,13 +5831,13 @@
     </row>
     <row r="91" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="D91" s="7">
         <v>0</v>
@@ -5846,19 +5846,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H91" s="8">
         <v>10000</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K91" s="6">
         <v>-7.0460323999999996</v>
@@ -5878,13 +5878,13 @@
     </row>
     <row r="92" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="D92" s="7">
         <v>0</v>
@@ -5893,19 +5893,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H92" s="8">
         <v>10000</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92" s="6">
         <v>-6.9958302999999997</v>
@@ -5925,13 +5925,13 @@
     </row>
     <row r="93" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>368</v>
       </c>
       <c r="D93" s="7">
         <v>0</v>
@@ -5940,19 +5940,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H93" s="8">
         <v>10000</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K93" s="6">
         <v>-6.8858085000000004</v>
@@ -5972,13 +5972,13 @@
     </row>
     <row r="94" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="D94" s="7">
         <v>0</v>
@@ -5987,19 +5987,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H94" s="8">
         <v>10000</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K94" s="6">
         <v>-7.0654506000000001</v>
@@ -6019,13 +6019,13 @@
     </row>
     <row r="95" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="D95" s="7">
         <v>0</v>
@@ -6034,19 +6034,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H95" s="8">
         <v>10000</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K95" s="6">
         <v>-6.9966328000000004</v>
@@ -6066,13 +6066,13 @@
     </row>
     <row r="96" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="D96" s="7">
         <v>0</v>
@@ -6081,19 +6081,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H96" s="8">
         <v>0</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K96" s="6">
         <v>-7.0080780999999996</v>
@@ -6113,13 +6113,13 @@
     </row>
     <row r="97" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>379</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>380</v>
       </c>
       <c r="D97" s="7">
         <v>0.29166666666666669</v>
@@ -6128,19 +6128,19 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H97" s="8">
         <v>15000</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K97" s="6">
         <v>-7.0081176000000003</v>
@@ -6160,13 +6160,13 @@
     </row>
     <row r="98" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="D98" s="7">
         <v>0</v>
@@ -6175,19 +6175,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H98" s="8">
         <v>300000</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K98" s="6">
         <v>-6.9028644000000003</v>
@@ -6207,13 +6207,13 @@
     </row>
     <row r="99" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="D99" s="7">
         <v>0</v>
@@ -6222,19 +6222,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H99" s="8">
         <v>5000</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99" s="6">
         <v>-7.1205553999999998</v>
@@ -6254,13 +6254,13 @@
     </row>
     <row r="100" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="D100" s="7">
         <v>0</v>
@@ -6269,10 +6269,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H100" s="8">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>7</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K100" s="6">
         <v>-7.0456190999999997</v>
@@ -6301,13 +6301,13 @@
     </row>
     <row r="101" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>395</v>
       </c>
       <c r="D101" s="7">
         <v>0</v>
@@ -6316,19 +6316,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H101" s="8">
         <v>5000</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K101" s="6">
         <v>-6.9935248999999997</v>
@@ -6348,13 +6348,13 @@
     </row>
     <row r="102" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D102" s="7">
         <v>0</v>
@@ -6363,19 +6363,19 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H102" s="8">
         <v>0</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K102" s="6">
         <v>-7.1751702999999996</v>
@@ -6395,13 +6395,13 @@
     </row>
     <row r="103" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="D103" s="7">
         <v>0.29166666666666669</v>
@@ -6410,19 +6410,19 @@
         <v>0.875</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H103" s="8">
         <v>10000</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K103" s="6">
         <v>-7.1049290000000003</v>
@@ -6442,13 +6442,13 @@
     </row>
     <row r="104" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="D104" s="7">
         <v>0.25</v>
@@ -6457,19 +6457,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H104" s="8">
         <v>10000</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K104" s="6">
         <v>-7.0077316999999999</v>

--- a/ml-service/Dataset_Wisata_Madura.xlsx
+++ b/ml-service/Dataset_Wisata_Madura.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dokumen\Imam\Pribadi\SIB\Capstone\back-end\ml-service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8317D817-22B0-4A89-BA0A-044397778053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4293698-3904-4415-B5EA-9106D4C34285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="509">
   <si>
     <t>Agro Edu Wisata Kebun Bang Jani</t>
   </si>
@@ -1257,6 +1257,306 @@
   </si>
   <si>
     <t>visitor</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FAgro%20Edu%20Wisata%20Kebun%20Bang%20Jani.jpg?alt=media&amp;token=b972b187-6d8c-4e8f-a33d-f0ff239b6a26</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Rindu.jpg?alt=media&amp;token=88ebc627-ff89-4704-941e-df5c1dbb7f33</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FWisata%20Alam%20Kesek.jpg?alt=media&amp;token=8e9eed16-da1d-46bb-9c5e-32a6741b867b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPandela%20(Pantai%20Desa%20Lajing).jpg?alt=media&amp;token=9ac9f265-98f3-41ee-a6dd-3df0355b753c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Agung%20Arosbaya.jpg?alt=media&amp;token=8b6dc199-9eba-4e37-b3f5-ac8bc1c792fd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Biru.jpg?alt=media&amp;token=8551c0f9-c5e1-4615-80fd-067dcb8d1c14</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FApi%20Alam%20Konang.png?alt=media&amp;token=20fda9cc-7065-42af-89d8-bf4daa29b442</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FAir%20Terjun%20Kokop.jpg?alt=media&amp;token=438ea54d-5edf-47b0-a1c9-8e61e4da0e83</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FBukit%20Pendabah.jpeg?alt=media&amp;token=2a191061-c502-42e1-b365-0aefdf02117a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGunung%20Geger.jpg?alt=media&amp;token=44087d33-1461-437c-a97d-2f4a8609d644</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FHutan%20Mangrove%20Labuhan.jpg?alt=media&amp;token=bb7f6c31-f93d-4f2b-aa37-f8d8e41b43e9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Gebang.jpg?alt=media&amp;token=09475c53-061b-46de-b396-894b2b5b0735</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKampung%20Batik%20Paseseh.jpg?alt=media&amp;token=fd6ae440-68cc-4e87-9fb1-0135673f21b2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Siring%20Kemuning.png?alt=media&amp;token=65b89dd5-1822-46c5-b6e8-f2a68e605f9a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Lobuk%20Bumi%20Anyar.png?alt=media&amp;token=ce8e6adf-5ba8-418c-8cfd-f03ba812b3c4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKutai%20Sukbar.jpg?alt=media&amp;token=1c6cfbb5-77d2-4eb5-b2e3-dd4387b9963e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Rekreasi%20Kota%20Bangkalan.jpg?alt=media&amp;token=e1c6a57f-e4ce-4e62-8e8c-cd9f51354d8f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FStadion%20Kerapan%20sapi%20R.P%20Moh%20Noer.jpg?alt=media&amp;token=56b224c2-7736-4eff-ba58-4b33f1fec653</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKolla%20Langgundih.png?alt=media&amp;token=4716fdfb-8b4b-4305-9245-c823c03d39c0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Aer%20Mata%20Ebu.jpg?alt=media&amp;token=aa06dfc9-a300-4ad0-ac4f-f394cd74852c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Sultan%20Abdul%20Kadirun.jpg?alt=media&amp;token=b8aebc23-778f-4561-be56-6009023fe6d0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Sunan%20Cendana.jpg?alt=media&amp;token=a6fc7849-6cde-4d4a-9397-e773f9ffcb31</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Syaikhona%20Kholil.jpeg?alt=media&amp;token=92209284-9a27-4097-ac65-2c74bf677002</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMuseum%20Bangkalan%20Cakraningrat.jpg?alt=media&amp;token=4f179d8d-0c28-4d27-9d44-7da5346c79a4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMuseum%20Perusnia.jpeg?alt=media&amp;token=6c65c72e-80c0-4d6a-a52e-65fc625c679a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Tlangoh.jpg?alt=media&amp;token=8c31902d-cc17-440d-be92-1d317b975e08</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPerahu%20Sarimuna.jpeg?alt=media&amp;token=a3cc69be-9752-44e1-b720-51f705ab2a1f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FJembatan%20Harapan%20Bancaran.png?alt=media&amp;token=8a894c42-df5c-4ccd-97f3-06242a0b6f2f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGoa%20Petapa%20Beach.jpg?alt=media&amp;token=2cf30899-b97b-47a2-8002-437120a39958</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKrahiga.png?alt=media&amp;token=bcbd514a-2212-4031-ac4f-18b4a98ba9b4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FAir%20Terjun%20Toroan.jpg?alt=media&amp;token=b5a1f424-8e02-4f60-80fe-4703b12fea0b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGoa%20Lebar.jpg?alt=media&amp;token=1edbfbb4-68d6-418f-b31a-dcdfa84371f4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FHutan%20Kera%20Nepa.jpg?alt=media&amp;token=21932d97-95fc-4df4-9c63-2bebf8c7db2c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkarang%20laut%20mandangin(2).JPG?alt=media&amp;token=f47b61de-d417-4bd6-b14f-199f790e3fd0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20camplong.JPG?alt=media&amp;token=be4054d1-e9c0-4f1e-9b22-2650dc356f65</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20lon%20malang.JPG?alt=media&amp;token=1b2e09ba-c26e-4df6-aac2-94dc31b53463</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwaduk%20klampis.JPG?alt=media&amp;token=6f0e1939-dce1-41a4-b544-2e5314411eb9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fsumur%20tujuh%20panji%20laras.JPG?alt=media&amp;token=496870ad-33b1-4af9-b49b-2bb84376bd09</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fsitus%20ratu%20ibu.JPG?alt=media&amp;token=cffa1939-a546-4709-8ae8-411ded562157</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fsitus%20trunojoyo.JPG?alt=media&amp;token=b589db6b-ed39-47a7-a053-90e5279a7920</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FDesa%20Budaya%20Kerapan%20Sapi%20Ketapang%20Barat.JPG?alt=media&amp;token=6e730f20-214f-4aa7-a5fc-9b2aa5f367a1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fdesa%20wisata%20petualangan%20panjat%20tebing%20margua.PNG?alt=media&amp;token=c9353ffd-cc07-4554-8f3e-8bf46f73d727</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmangrove%20sreseh.JPG?alt=media&amp;token=896e1328-2ca2-4a73-8dff-5dc13d59bd52</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampung%20tani%20panjalin.JPG?alt=media&amp;token=c7c16dfc-a3a9-470f-8e6a-203df1e273cd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampong%20milon%20napote.JPG?alt=media&amp;token=b73c404b-88d7-4742-b942-6b66846c99e9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FWMS%20Berung%20Ngambeng%20Spot%20Klobur.JPG?alt=media&amp;token=7f510ef7-5f73-4e83-9dbd-7ae88a647d2a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Wiyata%20Bahari%20Sampang.PNG?alt=media&amp;token=1dc70398-734e-4468-b371-b394a56c0019</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPerpustakaan%20Dan%20Arsip%20Kota%20Sampang.jpg?alt=media&amp;token=4736cb8a-a801-4ff2-b347-bd1f6201c5a9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20damar%20wulan.JPG?alt=media&amp;token=05f88ea5-0ad1-400c-977c-bbfa1ddd02dd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Impian%20Desa%20Rabian.PNG?alt=media&amp;token=56f4d544-370e-4769-9ba6-75e6d613b61f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwater%20park%20sumekar.jpeg?alt=media&amp;token=3a4aa8da-d83d-44a3-9d61-37285881cfea</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fapi%20tak%20kunjung%20padam.JPG?alt=media&amp;token=ba0f0359-ecd7-40fa-8ae3-00ba9183b137</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmangrove%20lembung.JPG?alt=media&amp;token=3cda0349-c8c3-4d3e-8956-681f238fe2f3</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20jumiang.JPG?alt=media&amp;token=4656031a-131b-4130-9be5-34d3d02d8bf1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20talang%20siring.JPG?alt=media&amp;token=bb49bd12-012d-4640-95cb-462c6f02890d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20the%20legend%20pamekasan.jpg?alt=media&amp;token=2f87ab11-3c6e-41d6-9adb-d76da82143af</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fbukit%20kehi.JPG?alt=media&amp;token=d229ccc1-86f9-4028-87e9-c1ce64c4c065</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Feduwisata%20garam.JPG?alt=media&amp;token=10ce58a8-9569-4846-9aac-002b8409cbca</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampung%20durian%20pmksn.JPG?alt=media&amp;token=15680e51-6745-4178-8bc6-138471c39f40</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampung%20toron%20semalem.JPG?alt=media&amp;token=468ce9d9-0e1c-4bc7-9d09-0dd183a97b2a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpuncak%20ratu.JPG?alt=media&amp;token=56725887-c317-4b69-8343-7c306aaabba9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20sawah.JPG?alt=media&amp;token=e697e7df-6eec-46e2-8ee0-7b5695d05bed</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpesarean%20batu%20ampar.JPG?alt=media&amp;token=42b3129a-839a-4639-bf03-c528fd809fd9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Ronggo%20Sukowati.JPG?alt=media&amp;token=d847b43c-33bc-46b2-bf74-79ce9ff73902</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmuseum%20mandhilaras.JPG?alt=media&amp;token=281e8794-8b97-4c15-8e37-467a6f3baa4d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftaman%20edukasi%20_titik%20sejuta%20warna_.JPG?alt=media&amp;token=31c2c79b-ce77-49f3-a9ec-184247e41735</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FWisata%20Terpadu%20Bhurunan%20Murtajih.JPG?alt=media&amp;token=3b0e9c29-9292-428b-b638-293a6c733bc9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGili-Iyang.webp?alt=media&amp;token=287b1cb1-d0ae-4872-a197-bf3b96e9f35c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgili%20labak.jpeg?alt=media&amp;token=4df78c58-519d-4ffb-a32f-5c7005dec905</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgoa-jeruk-.webp?alt=media&amp;token=0646b252-a472-4c2b-a439-45bdc67df6c2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgua%20payudan.jpeg?alt=media&amp;token=828c9689-a4bb-4cc8-9f90-0c7f605b119b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgoa%20soekarno.jpeg?alt=media&amp;token=ee32944d-a4cd-4400-ac57-36c4cc15f647</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmangrove%20kedatim.jpeg?alt=media&amp;token=730bdca0-6402-4c77-9099-509936d1b6fa</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20badur.jpeg?alt=media&amp;token=3afd679d-44e4-49be-ab32-251608288160</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20lombang.jpeg?alt=media&amp;token=e0f67109-bfa4-4ada-a91d-d1141155e5da</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20sembilan.jpeg?alt=media&amp;token=8ccea1de-e171-44fc-8750-468f0ff28c44</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20slopeng.jpeg?alt=media&amp;token=712b47c1-5b59-48e5-8986-0abe02d6d72e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20batu%20putih.jpeg?alt=media&amp;token=2a515026-5927-48a7-b64f-a3605b7655a3</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20bukit%20kalompek.jpeg?alt=media&amp;token=73a10a25-cc01-4e7f-a028-5e3922484948</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftelaga%20kirmata.jpeg?alt=media&amp;token=b8ca07e6-0619-4354-b7b6-1232af7fa424</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmutiara%20tirta.jpeg?alt=media&amp;token=6ef3e2bb-2c77-44fc-8b4b-2579d027752f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftaman%20tectona.jpeg?alt=media&amp;token=57546c84-5b22-4247-9034-64793f174f58</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftirta%20sumekar%20indah.jpeg?alt=media&amp;token=8c3e59e1-4d2d-4893-bec5-630960a7a4d1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20bukit%20tinggi%20daramista.jpeg?alt=media&amp;token=ae6054e5-6c1a-4264-9a3e-6b769d8299e6</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftaman%20kota%20adipura.jpeg?alt=media&amp;token=4eade221-54e7-4286-b644-7ee431b18361</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20gumuk%20kertasada.jpeg?alt=media&amp;token=3e66f717-b07a-430f-9376-0696fae65a2a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20joko%20tole.jpeg?alt=media&amp;token=f66fe5b2-2f82-4e3d-8b97-97fd7286b449</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20k%20faqih.jpeg?alt=media&amp;token=832e77e1-d0a1-4ab8-923f-f524e7651e6a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20katandur.jpeg?alt=media&amp;token=c2b5be88-e817-4bce-88cf-64c14cbb3811</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20panaongan.jpeg?alt=media&amp;token=e72135b1-36d8-4da1-94e2-36406ec4f112</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20sayyid%20yusuf.jpeg?alt=media&amp;token=2e181e1a-b9f3-4bde-a713-24615e6f070f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmakam%20asta%20tinggi.jpeg?alt=media&amp;token=fb464c44-c813-4156-8bef-69cfe7f4e176</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmasjid%20jami%20sumenep.jpeg?alt=media&amp;token=530940e8-d7d9-422c-99c3-69e1d687dc8e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmuseum%20keraton.jpeg?alt=media&amp;token=6886f735-71d5-4c0e-b639-be7718b118f7</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Frumah%20kasur%20pasir.jpeg?alt=media&amp;token=e10e0ac2-8bd6-4e8f-b70e-dec0de7ae4c1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FSitus%20Batugong.jpg?alt=media&amp;token=f5952726-05af-44a3-b30f-9e051f83d8fc</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20keris.jpeg?alt=media&amp;token=0f915461-f9dc-40cb-8947-266318da7091</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20sembilan%20gili%20genting.jpeg?alt=media&amp;token=008da410-c2c6-46e3-83ce-c83d718b6cf3</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20e%20kaoghi.jpeg?alt=media&amp;token=3a722f97-b497-4e0e-8b41-b50907e3f87b</t>
+  </si>
+  <si>
+    <t>imageURL</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1603,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1326,11 +1626,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1362,19 +1727,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1611,47 +1996,51 @@
     <col min="11" max="11" width="6.109375" customWidth="1"/>
     <col min="12" max="12" width="39.88671875" customWidth="1"/>
     <col min="13" max="13" width="22.88671875" customWidth="1"/>
+    <col min="14" max="14" width="184.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="23" t="s">
         <v>407</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>508</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -1664,44 +2053,47 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="15">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="14">
         <v>2342</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="16">
         <v>0</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="14">
         <v>-7.0562531760783296</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="18">
         <v>112.777121217306</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>409</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1750,8 +2142,11 @@
       <c r="L3" s="6">
         <v>-7.1593806927427703</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="11">
         <v>112.776644379763</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>410</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1800,8 +2195,11 @@
       <c r="L4" s="6">
         <v>-7.16032882308778</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="11">
         <v>112.77219060489099</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1850,8 +2248,11 @@
       <c r="L5" s="6">
         <v>-6.97275487235685</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="11">
         <v>112.79423657976299</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>412</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1900,8 +2301,11 @@
       <c r="L6" s="6">
         <v>-6.9557206983162896</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="11">
         <v>112.84774550030301</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>413</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1950,8 +2354,11 @@
       <c r="L7" s="6">
         <v>-6.8848477296647799</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="11">
         <v>113.079132550927</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>414</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -2000,8 +2407,11 @@
       <c r="L8" s="6">
         <v>-7.0422093470048202</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="11">
         <v>113.073687635062</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>415</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -2050,8 +2460,11 @@
       <c r="L9" s="6">
         <v>-7.0200444155317099</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="11">
         <v>113.121777195108</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>416</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2100,8 +2513,11 @@
       <c r="L10" s="6">
         <v>-7.1104119914174104</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="11">
         <v>112.744883418382</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2150,8 +2566,11 @@
       <c r="L11" s="6">
         <v>-7.0262905809305298</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="11">
         <v>112.932690819564</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>418</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2200,8 +2619,11 @@
       <c r="L12" s="6">
         <v>-6.8841857011571301</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="11">
         <v>112.99368480591799</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>419</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2250,8 +2672,11 @@
       <c r="L13" s="6">
         <v>-6.9852237321306498</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="11">
         <v>112.78677076441799</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>420</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2300,8 +2725,11 @@
       <c r="L14" s="6">
         <v>-6.8895568455788601</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="11">
         <v>113.085181550927</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>421</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2350,8 +2778,11 @@
       <c r="L15" s="6">
         <v>-6.8831003144336202</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="11">
         <v>113.05564733062999</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>422</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2400,8 +2831,11 @@
       <c r="L16" s="6">
         <v>-6.8931457743543003</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="11">
         <v>113.124476949129</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>423</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2450,8 +2884,11 @@
       <c r="L17" s="6">
         <v>-7.1587073075734597</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="11">
         <v>112.79461308532601</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>424</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2500,8 +2937,11 @@
       <c r="L18" s="6">
         <v>-7.1221859769528102</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="11">
         <v>112.813400050927</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>424</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2550,8 +2990,11 @@
       <c r="L19" s="6">
         <v>-7.0428586449504298</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="11">
         <v>112.740382704891</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>425</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2600,8 +3043,11 @@
       <c r="L20" s="6">
         <v>-7.0231358734565399</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="11">
         <v>112.761744479763</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>426</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2650,8 +3096,11 @@
       <c r="L21" s="6">
         <v>-7.0400722493264398</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="11">
         <v>112.708753393254</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>427</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2700,8 +3149,11 @@
       <c r="L22" s="6">
         <v>-6.9485208776454499</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="11">
         <v>112.856369483858</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>428</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2750,8 +3202,11 @@
       <c r="L23" s="6">
         <v>-7.0279255124262301</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="11">
         <v>112.746339563907</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>429</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2800,8 +3255,11 @@
       <c r="L24" s="6">
         <v>-7.15787248715153</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="11">
         <v>112.854163249072</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>430</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2850,8 +3308,11 @@
       <c r="L25" s="6">
         <v>-7.0410514919170302</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="11">
         <v>112.723478968126</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2900,8 +3361,11 @@
       <c r="L26" s="6">
         <v>-7.0476693356659199</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="11">
         <v>112.735317818382</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>432</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2950,8 +3414,11 @@
       <c r="L27" s="6">
         <v>-7.0332183081351696</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="11">
         <v>112.742761389035</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>433</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -3000,8 +3467,11 @@
       <c r="L28" s="6">
         <v>-6.8823135728683003</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="11">
         <v>113.047831479763</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>434</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3050,8 +3520,11 @@
       <c r="L29" s="6">
         <v>-6.8874765969752501</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="11">
         <v>113.082814502567</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>435</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -3100,8 +3573,11 @@
       <c r="L30" s="6">
         <v>-7.0129388689591803</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="11">
         <v>112.76106740438</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>436</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -3150,8 +3626,11 @@
       <c r="L31" s="6">
         <v>-7.1552278232812503</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="11">
         <v>112.802748917024</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>437</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3200,8 +3679,11 @@
       <c r="L32" s="6">
         <v>-7.0435006144455201</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="11">
         <v>112.70813719316401</v>
+      </c>
+      <c r="N32" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3250,8 +3732,11 @@
       <c r="L33" s="6">
         <v>-6.8923677864814401</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="11">
         <v>113.312382208599</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>439</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3300,8 +3785,11 @@
       <c r="L34" s="6">
         <v>-7.1945282838153899</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34" s="11">
         <v>113.255516320236</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>440</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3350,8 +3838,11 @@
       <c r="L35" s="6">
         <v>-6.8974157393115201</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35" s="11">
         <v>113.20085487925201</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>441</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3400,8 +3891,11 @@
       <c r="L36" s="6">
         <v>-7.3076045456303298</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="11">
         <v>113.211343279761</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3450,8 +3944,11 @@
       <c r="L37" s="6">
         <v>-7.2180957699475101</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37" s="11">
         <v>113.31936688279001</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>443</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3500,8 +3997,11 @@
       <c r="L38" s="6">
         <v>-6.8887427342836398</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="11">
         <v>113.395441733052</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -3550,8 +4050,11 @@
       <c r="L39" s="6">
         <v>-7.1069186227886503</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39" s="11">
         <v>113.226025777722</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>445</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -3600,8 +4103,11 @@
       <c r="L40" s="6">
         <v>-7.2090514543004396</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="11">
         <v>113.234600722748</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>446</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -3650,8 +4156,11 @@
       <c r="L41" s="6">
         <v>-7.2082701422971098</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41" s="11">
         <v>113.23283781532901</v>
+      </c>
+      <c r="N41" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -3700,8 +4209,11 @@
       <c r="L42" s="6">
         <v>-7.1930537401677501</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="11">
         <v>113.25517002687801</v>
+      </c>
+      <c r="N42" s="12" t="s">
+        <v>448</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -3750,8 +4262,11 @@
       <c r="L43" s="6">
         <v>-6.8859530486375498</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="11">
         <v>113.32147044202701</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>449</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -3800,8 +4315,11 @@
       <c r="L44" s="6">
         <v>-6.9126175541528303</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="11">
         <v>113.476391501834</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -3850,8 +4368,11 @@
       <c r="L45" s="6">
         <v>-7.1916661336380301</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45" s="11">
         <v>113.088863874995</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -3900,8 +4421,11 @@
       <c r="L46" s="6">
         <v>-6.8966708003211199</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="11">
         <v>113.43771316158499</v>
+      </c>
+      <c r="N46" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -3950,8 +4474,11 @@
       <c r="L47" s="6">
         <v>-6.9120880608692197</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="11">
         <v>113.39581961494</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>453</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -4000,8 +4527,11 @@
       <c r="L48" s="6">
         <v>-7.1916775824052701</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48" s="11">
         <v>113.08835591718</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>454</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -4050,8 +4580,11 @@
       <c r="L49" s="6">
         <v>-7.1907955594338997</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49" s="11">
         <v>113.25409771162499</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>455</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -4100,8 +4633,11 @@
       <c r="L50" s="6">
         <v>-7.1960907913387802</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M50" s="11">
         <v>113.25231035171301</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>456</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -4150,8 +4686,11 @@
       <c r="L51" s="6">
         <v>-7.2198290456833796</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51" s="11">
         <v>113.22260685950801</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>457</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -4200,8 +4739,11 @@
       <c r="L52" s="6">
         <v>-6.8919108951761396</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52" s="11">
         <v>113.261527707388</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>458</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -4250,8 +4792,11 @@
       <c r="L53" s="6">
         <v>-7.1938813677752904</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53" s="11">
         <v>113.25779884615901</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>459</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -4300,8 +4845,11 @@
       <c r="L54" s="6">
         <v>-7.2048084605951397</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M54" s="11">
         <v>113.461667820776</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>460</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4350,8 +4898,11 @@
       <c r="L55" s="6">
         <v>-7.1648457439274704</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M55" s="11">
         <v>113.575732834647</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>461</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -4400,8 +4951,11 @@
       <c r="L56" s="6">
         <v>-7.2331874095648798</v>
       </c>
-      <c r="M56" s="6">
+      <c r="M56" s="11">
         <v>113.549338690422</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>462</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -4450,8 +5004,11 @@
       <c r="L57" s="6">
         <v>-7.1372637816611704</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="11">
         <v>113.59076589339401</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>463</v>
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -4500,8 +5057,11 @@
       <c r="L58" s="6">
         <v>-7.25049906568014</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="11">
         <v>113.517067326709</v>
+      </c>
+      <c r="N58" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -4550,8 +5110,11 @@
       <c r="L59" s="6">
         <v>-7.0764782339138197</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="11">
         <v>113.610326834647</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>465</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -4600,8 +5163,11 @@
       <c r="L60" s="6">
         <v>-7.1794255086479</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60" s="11">
         <v>113.536004573079</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -4650,8 +5216,11 @@
       <c r="L61" s="6">
         <v>-7.0226766047011804</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="11">
         <v>113.504072387571</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>467</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -4700,8 +5269,11 @@
       <c r="L62" s="6">
         <v>-7.1104318419558101</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="11">
         <v>113.505373919303</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -4750,8 +5322,11 @@
       <c r="L63" s="6">
         <v>-7.0266986077407596</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M63" s="11">
         <v>113.492764615068</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>469</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -4800,8 +5375,11 @@
       <c r="L64" s="6">
         <v>-7.0497456251916102</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M64" s="11">
         <v>113.57837857539801</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -4850,8 +5428,11 @@
       <c r="L65" s="6">
         <v>-7.0979316704125504</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65" s="11">
         <v>113.376994115328</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>471</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -4900,8 +5481,11 @@
       <c r="L66" s="6">
         <v>-7.1509583079350101</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M66" s="11">
         <v>113.484780119031</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>472</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -4950,8 +5534,11 @@
       <c r="L67" s="6">
         <v>-7.1597695479385397</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M67" s="11">
         <v>113.48497353041201</v>
+      </c>
+      <c r="N67" s="12" t="s">
+        <v>473</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -5000,8 +5587,11 @@
       <c r="L68" s="6">
         <v>-7.2062618978593402</v>
       </c>
-      <c r="M68" s="6">
+      <c r="M68" s="11">
         <v>113.517765421961</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>474</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -5050,8 +5640,11 @@
       <c r="L69" s="6">
         <v>-7.1671868749746102</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M69" s="11">
         <v>113.507964784381</v>
+      </c>
+      <c r="N69" s="12" t="s">
+        <v>475</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -5100,8 +5693,11 @@
       <c r="L70" s="6">
         <v>-6.9831184000000004</v>
       </c>
-      <c r="M70" s="6">
+      <c r="M70" s="11">
         <v>114.1722603</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>476</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -5150,8 +5746,11 @@
       <c r="L71" s="6">
         <v>-7.2014285999999998</v>
       </c>
-      <c r="M71" s="6">
+      <c r="M71" s="11">
         <v>114.04570440000001</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -5200,8 +5799,11 @@
       <c r="L72" s="6">
         <v>-6.9957940000000001</v>
       </c>
-      <c r="M72" s="6">
+      <c r="M72" s="11">
         <v>113.84937309999999</v>
+      </c>
+      <c r="N72" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -5250,8 +5852,11 @@
       <c r="L73" s="6">
         <v>-7.0191901999999997</v>
       </c>
-      <c r="M73" s="6">
+      <c r="M73" s="11">
         <v>113.6185469</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>479</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -5300,8 +5905,11 @@
       <c r="L74" s="6">
         <v>-6.8982077000000004</v>
       </c>
-      <c r="M74" s="6">
+      <c r="M74" s="11">
         <v>113.6567794</v>
+      </c>
+      <c r="N74" s="12" t="s">
+        <v>480</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -5350,8 +5958,11 @@
       <c r="L75" s="6">
         <v>-7.0934799999999996</v>
       </c>
-      <c r="M75" s="6">
+      <c r="M75" s="11">
         <v>113.86192320000001</v>
+      </c>
+      <c r="N75" s="12" t="s">
+        <v>481</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -5400,8 +6011,11 @@
       <c r="L76" s="6">
         <v>-6.8791954000000004</v>
       </c>
-      <c r="M76" s="6">
+      <c r="M76" s="11">
         <v>113.9732791</v>
+      </c>
+      <c r="N76" s="12" t="s">
+        <v>482</v>
       </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -5450,8 +6064,11 @@
       <c r="L77" s="6">
         <v>-6.9178648000000003</v>
       </c>
-      <c r="M77" s="6">
+      <c r="M77" s="11">
         <v>114.06506760000001</v>
+      </c>
+      <c r="N77" s="12" t="s">
+        <v>483</v>
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -5500,8 +6117,11 @@
       <c r="L78" s="6">
         <v>-7.1751702999999996</v>
       </c>
-      <c r="M78" s="6">
+      <c r="M78" s="11">
         <v>113.9218159</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>484</v>
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -5550,8 +6170,11 @@
       <c r="L79" s="6">
         <v>-6.8861093999999996</v>
       </c>
-      <c r="M79" s="6">
+      <c r="M79" s="11">
         <v>113.792343</v>
+      </c>
+      <c r="N79" s="12" t="s">
+        <v>485</v>
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -5600,8 +6223,11 @@
       <c r="L80" s="6">
         <v>-6.8703621999999998</v>
       </c>
-      <c r="M80" s="6">
+      <c r="M80" s="11">
         <v>113.9243001</v>
+      </c>
+      <c r="N80" s="12" t="s">
+        <v>486</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -5650,8 +6276,11 @@
       <c r="L81" s="6">
         <v>-6.9705250000000003</v>
       </c>
-      <c r="M81" s="6">
+      <c r="M81" s="11">
         <v>114.09578260000001</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>487</v>
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -5700,8 +6329,11 @@
       <c r="L82" s="6">
         <v>-7.0789985</v>
       </c>
-      <c r="M82" s="6">
+      <c r="M82" s="11">
         <v>113.8262843</v>
+      </c>
+      <c r="N82" s="12" t="s">
+        <v>488</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -5750,8 +6382,11 @@
       <c r="L83" s="6">
         <v>-7.0108300999999997</v>
       </c>
-      <c r="M83" s="6">
+      <c r="M83" s="11">
         <v>113.8637779</v>
+      </c>
+      <c r="N83" s="12" t="s">
+        <v>489</v>
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -5800,8 +6435,11 @@
       <c r="L84" s="6">
         <v>-7.0152004999999997</v>
       </c>
-      <c r="M84" s="6">
+      <c r="M84" s="11">
         <v>138.16391999999999</v>
+      </c>
+      <c r="N84" s="12" t="s">
+        <v>490</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -5850,8 +6488,11 @@
       <c r="L85" s="6">
         <v>-7.0141752000000004</v>
       </c>
-      <c r="M85" s="6">
+      <c r="M85" s="11">
         <v>113.82199230000001</v>
+      </c>
+      <c r="N85" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -5900,8 +6541,11 @@
       <c r="L86" s="6">
         <v>-6.9902442999999996</v>
       </c>
-      <c r="M86" s="6">
+      <c r="M86" s="11">
         <v>113.8408225</v>
+      </c>
+      <c r="N86" s="12" t="s">
+        <v>459</v>
       </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -5950,8 +6594,11 @@
       <c r="L87" s="6">
         <v>-7.0071139000000002</v>
       </c>
-      <c r="M87" s="6">
+      <c r="M87" s="11">
         <v>113.7999978</v>
+      </c>
+      <c r="N87" s="12" t="s">
+        <v>492</v>
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -6000,8 +6647,11 @@
       <c r="L88" s="6">
         <v>-7.0082554000000004</v>
       </c>
-      <c r="M88" s="6">
+      <c r="M88" s="11">
         <v>113.8602317</v>
+      </c>
+      <c r="N88" s="12" t="s">
+        <v>493</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -6050,8 +6700,11 @@
       <c r="L89" s="6">
         <v>-7.0280481999999997</v>
       </c>
-      <c r="M89" s="6">
+      <c r="M89" s="11">
         <v>113.8956754</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>494</v>
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -6100,8 +6753,11 @@
       <c r="L90" s="6">
         <v>-6.9746915999999999</v>
       </c>
-      <c r="M90" s="6">
+      <c r="M90" s="11">
         <v>113.91422420000001</v>
+      </c>
+      <c r="N90" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -6150,8 +6806,11 @@
       <c r="L91" s="6">
         <v>-7.0460323999999996</v>
       </c>
-      <c r="M91" s="6">
+      <c r="M91" s="11">
         <v>113.75626889999999</v>
+      </c>
+      <c r="N91" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -6200,8 +6859,11 @@
       <c r="L92" s="6">
         <v>-6.9958302999999997</v>
       </c>
-      <c r="M92" s="6">
+      <c r="M92" s="11">
         <v>113.8718064</v>
+      </c>
+      <c r="N92" s="12" t="s">
+        <v>497</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -6250,8 +6912,11 @@
       <c r="L93" s="6">
         <v>-6.8858085000000004</v>
       </c>
-      <c r="M93" s="6">
+      <c r="M93" s="11">
         <v>113.6614774</v>
+      </c>
+      <c r="N93" s="12" t="s">
+        <v>498</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -6300,8 +6965,11 @@
       <c r="L94" s="6">
         <v>-7.0654506000000001</v>
       </c>
-      <c r="M94" s="6">
+      <c r="M94" s="11">
         <v>113.9424303</v>
+      </c>
+      <c r="N94" s="12" t="s">
+        <v>499</v>
       </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -6350,8 +7018,11 @@
       <c r="L95" s="6">
         <v>-6.9966328000000004</v>
       </c>
-      <c r="M95" s="6">
+      <c r="M95" s="11">
         <v>113.8435034</v>
+      </c>
+      <c r="N95" s="12" t="s">
+        <v>500</v>
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -6400,8 +7071,11 @@
       <c r="L96" s="6">
         <v>-7.0080780999999996</v>
       </c>
-      <c r="M96" s="6">
+      <c r="M96" s="11">
         <v>113.85922789999999</v>
+      </c>
+      <c r="N96" s="12" t="s">
+        <v>501</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -6450,8 +7124,11 @@
       <c r="L97" s="6">
         <v>-7.0081176000000003</v>
       </c>
-      <c r="M97" s="6">
+      <c r="M97" s="11">
         <v>113.8628659</v>
+      </c>
+      <c r="N97" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -6500,8 +7177,11 @@
       <c r="L98" s="6">
         <v>-6.9028644000000003</v>
       </c>
-      <c r="M98" s="6">
+      <c r="M98" s="11">
         <v>114.02179</v>
+      </c>
+      <c r="N98" s="12" t="s">
+        <v>503</v>
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -6550,8 +7230,11 @@
       <c r="L99" s="6">
         <v>-7.1205553999999998</v>
       </c>
-      <c r="M99" s="6">
+      <c r="M99" s="11">
         <v>114.33305559999999</v>
+      </c>
+      <c r="N99" s="12" t="s">
+        <v>504</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -6600,8 +7283,11 @@
       <c r="L100" s="6">
         <v>-7.0456190999999997</v>
       </c>
-      <c r="M100" s="6">
+      <c r="M100" s="11">
         <v>113.9593936</v>
+      </c>
+      <c r="N100" s="12" t="s">
+        <v>505</v>
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -6650,8 +7336,11 @@
       <c r="L101" s="6">
         <v>-6.9935248999999997</v>
       </c>
-      <c r="M101" s="6">
+      <c r="M101" s="11">
         <v>114.1735705</v>
+      </c>
+      <c r="N101" s="12" t="s">
+        <v>505</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -6700,8 +7389,11 @@
       <c r="L102" s="6">
         <v>-7.1751702999999996</v>
       </c>
-      <c r="M102" s="6">
+      <c r="M102" s="11">
         <v>113.9218159</v>
+      </c>
+      <c r="N102" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -6750,8 +7442,11 @@
       <c r="L103" s="6">
         <v>-7.1049290000000003</v>
       </c>
-      <c r="M103" s="6">
+      <c r="M103" s="11">
         <v>113.88752839999999</v>
+      </c>
+      <c r="N103" s="12" t="s">
+        <v>507</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -6800,8 +7495,11 @@
       <c r="L104" s="6">
         <v>-7.0077316999999999</v>
       </c>
-      <c r="M104" s="6">
+      <c r="M104" s="11">
         <v>113.79997849999999</v>
+      </c>
+      <c r="N104" s="12" t="s">
+        <v>492</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>

--- a/ml-service/Dataset_Wisata_Madura.xlsx
+++ b/ml-service/Dataset_Wisata_Madura.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dokumen\Imam\Pribadi\SIB\Capstone\back-end\ml-service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4293698-3904-4415-B5EA-9106D4C34285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9A5D0A-5D9C-42A5-8219-AA023576227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="510">
   <si>
     <t>Agro Edu Wisata Kebun Bang Jani</t>
   </si>
@@ -1557,6 +1557,9 @@
   </si>
   <si>
     <t>imageURL</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Bukit%20Anjhir.jpg?alt=media&amp;token=eaffa015-3564-4348-ab1d-9843eb5644c0</t>
   </si>
 </sst>
 </file>
@@ -1567,7 +1570,7 @@
     <numFmt numFmtId="164" formatCode="h&quot;:&quot;mm"/>
     <numFmt numFmtId="165" formatCode="[$Rp]#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1593,6 +1596,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1692,10 +1702,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1760,8 +1771,10 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1977,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="43" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2834,7 +2847,7 @@
       <c r="M16" s="11">
         <v>113.124476949129</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="24" t="s">
         <v>423</v>
       </c>
       <c r="O16" s="1"/>
@@ -2940,8 +2953,8 @@
       <c r="M18" s="11">
         <v>112.813400050927</v>
       </c>
-      <c r="N18" s="12" t="s">
-        <v>424</v>
+      <c r="N18" s="24" t="s">
+        <v>509</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -29006,7 +29019,11 @@
       <c r="L1000" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N18" r:id="rId1" xr:uid="{70BF9E74-6CF9-4BA2-9074-210AF0782F68}"/>
+    <hyperlink ref="N16" r:id="rId2" xr:uid="{0098AFA4-C3CA-406D-B16C-BD7DA56E5F53}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
--- a/ml-service/Dataset_Wisata_Madura.xlsx
+++ b/ml-service/Dataset_Wisata_Madura.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dokumen\Imam\Pribadi\SIB\Capstone\back-end\ml-service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9A5D0A-5D9C-42A5-8219-AA023576227C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D18870-BB28-4633-9C39-D1C55971633E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,21 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="510">
   <si>
-    <t>Agro Edu Wisata Kebun Bang Jani</t>
-  </si>
-  <si>
     <t>Bangkalan</t>
   </si>
   <si>
     <t>Kamp. Du'ur, Desa, Granggurar, Langkap, Kec. Burneh, Kabupaten Bangkalan, Jawa Timur 69121</t>
   </si>
   <si>
-    <t>Agro Edu Wisata Kebun Bang Jani di Bangkalan merupakan destinasi wisata edukasi yang memadukan pengalaman bertani dengan wisata alam. Di sini, pengunjung dapat belajar tentang berbagai jenis tanaman sambil menikmati udara segar di kebun yang luas dan hijau, menjadikannya tempat yang tepat untuk keluarga dan pelajar.</t>
-  </si>
-  <si>
-    <t>Wisata Kebun</t>
-  </si>
-  <si>
     <t>Musollah, Parkir, Toilet</t>
   </si>
   <si>
@@ -60,24 +51,12 @@
     <t>Pantai Rindu di Bangkalan menyuguhkan pesona alam yang tenang dengan pemandangan laut yang menenangkan. Tempat ini sangat cocok untuk wisatawan yang ingin beristirahat sambil menikmati keindahan pantai yang masih alami dan suasana yang damai.</t>
   </si>
   <si>
-    <t>Wisata Pantai</t>
-  </si>
-  <si>
     <t>3.7</t>
   </si>
   <si>
-    <t>Wisata Alam Kesek</t>
-  </si>
-  <si>
     <t>Kesek, Kec. Labang, Kabupaten Bangkalan, Jawa Timur 69163</t>
   </si>
   <si>
-    <t>Wisata Alam Kesek adalah kawasan wisata alam yang terletak di Bangkalan, menawarkan pemandangan alam yang asri dan segar. Pengunjung dapat menikmati keindahan alam pegunungan, udara sejuk, dan berbagai aktivitas outdoor yang menyegarkan tubuh dan pikiran.</t>
-  </si>
-  <si>
-    <t>Wisata Kuliner dan Cafe</t>
-  </si>
-  <si>
     <t>Musollah, Parkir, Toilet, Kuliner</t>
   </si>
   <si>
@@ -108,9 +87,6 @@
     <t>Makam Agung Arosbaya di Bangkalan adalah tempat ziarah yang penting bagi masyarakat Madura. Tempat ini tidak hanya dikenal sebagai makam bersejarah, tetapi juga memiliki nuansa religius yang kental, menjadikannya destinasi wisata religi yang populer.</t>
   </si>
   <si>
-    <t>Wisata Religi</t>
-  </si>
-  <si>
     <t>4.6</t>
   </si>
   <si>
@@ -135,9 +111,6 @@
     <t>Api Alam Konang adalah fenomena alam yang unik, di mana api yang tidak pernah padam terus menyala tanpa henti. Terletak di Bangkalan, tempat ini menjadi daya tarik bagi wisatawan yang ingin menyaksikan keajaiban alam ini secara langsung.</t>
   </si>
   <si>
-    <t>Wisata Alam</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -207,9 +180,6 @@
     <t>Kampung Batik Paseseh adalah destinasi wisata budaya yang menawarkan pengalaman langsung dalam pembuatan batik Madura. Pengunjung dapat belajar tentang proses pembuatan batik tradisional dan membeli batik asli Madura sebagai oleh-oleh.</t>
   </si>
   <si>
-    <t>Wisata Budaya</t>
-  </si>
-  <si>
     <t>Parkir, Toilet</t>
   </si>
   <si>
@@ -268,9 +238,6 @@
   </si>
   <si>
     <t>Taman Rekreasi Kota Bangkalan adalah tempat hiburan keluarga yang dilengkapi dengan berbagai fasilitas rekreasi. Tempat ini cocok untuk piknik keluarga atau sekadar berjalan-jalan menikmati taman yang hijau.</t>
-  </si>
-  <si>
-    <t>Wisata Taman</t>
   </si>
   <si>
     <t>Wahana, Parkir, Toilet, Musollah</t>
@@ -545,24 +512,12 @@
     <t>Parkir, Warung, Toilet</t>
   </si>
   <si>
-    <t>Desa Wisata Petualangan Panjat Tebing Murgua - Tamberu Daya</t>
-  </si>
-  <si>
     <t>Rojing, Tamberu Daya, Kec. Sokobanah, Kabupaten Sampang, Jawa Timur 69262</t>
   </si>
   <si>
-    <t>Desa Wisata Petualangan Panjat Tebing Murgua – Tamberu Daya adalah destinasi wisata alam di Dusun Rojing, Desa Tamberu Daya, Kecamatan Sokobanah, Kabupaten Sampang, Madura. Dikenal dengan tebing alami yang menantang, desa ini menjadi tempat favorit bagi pecinta panjat tebing dan petualangan. Lokasinya yang berada di antara sungai dan perbukitan memberikan pengalaman unik dan pemandangan yang memukau bagi pengunjung. Dengan suasana pedesaan yang asri, Desa Wisata Murgua menjadi pilihan tepat untuk menikmati wisata alam dan petualangan di Madura.</t>
-  </si>
-  <si>
-    <t>Wisata Mangrove Sreseh</t>
-  </si>
-  <si>
     <t>Manduyan, Klobur, Kec. Sreseh, Kabupaten Sampang, Jawa Timur</t>
   </si>
   <si>
-    <t>Wisata Mangrove Sreseh adalah destinasi ekowisata yang terletak di Desa Marparan, Kecamatan Sreseh, Kabupaten Sampang, Madura. Dikelola oleh Kelompok Sadar Wisata (Pokdarwis) setempat, kawasan ini menawarkan pengalaman menyusuri hutan mangrove yang asri melalui jalur air dengan perahu. Pengunjung dapat menikmati keindahan alam, berfoto di berbagai spot menarik, serta mencicipi hidangan laut segar seperti ikan, udang, dan kepiting. Akses ke lokasi ini memerlukan penyeberangan sungai menggunakan perahu, menambah daya tarik tersendiri bagi wisatawan.</t>
-  </si>
-  <si>
     <t>Edufarm Kampung Tani Panjalin</t>
   </si>
   <si>
@@ -572,9 +527,6 @@
     <t>Edufarm Kampung Tani Panjalin adalah desa wisata edukatif yang terletak di Desa Sokobanah Daya, Kecamatan Sokobanah, Kabupaten Sampang, Madura. Destinasi ini menawarkan pengalaman belajar langsung tentang pertanian dan peternakan, khususnya dalam pengelolaan sapi perah. Pengunjung dapat berinteraksi dengan hewan ternak, mempelajari proses produksi susu, serta memahami praktik pertanian berkelanjutan. Selain itu, desa ini juga menyajikan suasana pedesaan yang asri dan tenang, cocok untuk kegiatan edukasi dan rekreasi keluarga. Dengan pendekatan interaktif dan lingkungan yang mendukung, Edufarm Kampung Tani Panjalin menjadi pilihan tepat untuk wisata edukasi di Madura.</t>
   </si>
   <si>
-    <t>Wisata Edukasi</t>
-  </si>
-  <si>
     <t>Kampong Milon Napote</t>
   </si>
   <si>
@@ -596,970 +548,1018 @@
     <t>Manduyan, Klobur, Kec. Sreseh, Kabupaten Sampang, Jawa Timur 69273</t>
   </si>
   <si>
-    <t>WMS Berung Ngambeng Spot Klobur adalah destinasi wisata berbasis komunitas di Desa Klobur, Kecamatan Sreseh, Kabupaten Sampang, Madura. Diresmikan pada 3 Oktober 2022, tempat ini menggabungkan keindahan hutan mangrove dengan konsep warung apung di atas sungai, menawarkan pengalaman unik bagi pengunjung. Fasilitas yang tersedia meliputi jalur tracking apung, perahu bebek, susur sungai, paket edukasi mangrove, area pemancingan, serta kafe dengan hidangan lokal. Dikelola oleh Pokdarwis Klobur Mandiri, destinasi ini beroperasi setiap hari dari pukul 08.00 hingga 00.00 WIB. Keunikan dan potensi wisata ini telah membawa Desa Klobur masuk dalam 500 besar Anugerah Desa Wisata Indonesia (ADWI) 2024. 
+    <t>Taman Wiyata Bahari Sampang</t>
+  </si>
+  <si>
+    <t>Rw. II, Dalpenang, Kec. Sampang, Kabupaten Sampang, Jawa Timur 69216</t>
+  </si>
+  <si>
+    <t>Taman Wiyata Bahari adalah taman kota yang terletak di Madura. Taman ini menjadi ruang terbuka hijau yang menawarkan suasana santai bagi warga untuk bersantai dan beraktivitas. Namun, dalam beberapa waktu terakhir, taman ini mengalami penurunan kunjungan akibat minimnya perawatan dan fasilitas yang kurang memadai, seperti kolam yang tidak terawat yang kini sering digunakan anak-anak untuk berenang secara dadakan . Meskipun demikian, Taman Wiyata Bahari tetap menjadi pilihan rekreasi murah bagi masyarakat sekitar.</t>
+  </si>
+  <si>
+    <t>Parkir, Toilet, Musollah, Warung</t>
+  </si>
+  <si>
+    <t>Perpustakaan Dan Arsip Kota Sampang</t>
+  </si>
+  <si>
+    <t>Rw. III, Rong Tengah, Kec. Sampang, Kabupaten Sampang, Jawa Timur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perpustakaan dan Arsip Kabupaten Sampang adalah lembaga layanan publik yang dikelola oleh Dinas Perpustakaan dan Kearsipan Kabupaten Sampang. Berperan sebagai pusat literasi dan pelestarian dokumen daerah, perpustakaan ini menyediakan koleksi buku cetak dan digital, serta akses Wi-Fi gratis bagi pengunjung. Dengan penerapan Program Transformasi Perpustakaan Berbasis Inklusi Sosial (TPBIS), perpustakaan ini berupaya meningkatkan kreativitas dan kemandirian masyarakat melalui berbagai kegiatan literasi. Gedung layanan perpustakaan ini diresmikan pada 23 November 2023 oleh Bupati Sampang, sebagai wujud komitmen dalam meningkatkan kualitas sumber daya manusia melalui literasi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantai Damar Wulan </t>
+  </si>
+  <si>
+    <t>Takong, Aeng Sareh, Kec. Sampang, Kabupaten Sampang, Jawa Timur</t>
+  </si>
+  <si>
+    <t>Pantai Damar Wulan adalah destinasi wisata alam yang terletak di Madura, sekitar 5 kilometer dari pusat kota. Pantai ini menawarkan pasir putih yang lembut, air laut jernih, dan ombak yang tenang, menjadikannya tempat ideal untuk bersantai dan berenang bersama keluarga. Keunikan pantai ini terletak pada keberadaan tambak garam di seberangnya, memungkinkan pengunjung menyaksikan proses produksi garam secara langsung . Selain itu, deretan tanaman mangrove di sepanjang bibir pantai menambah keindahan alami kawasan ini. Meskipun fasilitas seperti toilet dan area parkir masih terbatas, Pantai Damar Wulan tetap menjadi pilihan favorit wisatawan, terutama saat libur Lebaran, karena keindahan alamnya yang memukau .</t>
+  </si>
+  <si>
+    <t>Taman Impian Desa Rabian</t>
+  </si>
+  <si>
+    <t>Sembung, Rabiyan, Kec. Ketapang, Kabupaten Sampang, Jawa Timur 69261</t>
+  </si>
+  <si>
+    <t>Taman Impian Rabiyan adalah destinasi wisata keluarga yang terletak di Desa Rabiyan, Kecamatan Ketapang, Kabupaten Sampang, Madura. Tempat ini menawarkan pengalaman wisata yang berfokus pada pelestarian budaya, pemberdayaan komunitas lokal, dan pendidikan, menjadikannya cocok untuk liburan bersama keluarga dan sahabat. Dengan suasana alam yang asri, Taman Impian Rabiyan menyediakan berbagai fasilitas rekreasi yang dapat dinikmati oleh pengunjung dari berbagai usia. Selain itu, taman ini juga menjadi lokasi untuk berbagai kegiatan komunitas, seperti balap motor cross, yang menambah daya tariknya sebagai pusat aktivitas masyarakat setempat. Dengan konsep wisata berbasis komunitas, Taman Impian Rabiyan berupaya memberikan pengalaman positif bagi wisatawan sambil mendukung pelestarian budaya dan alam lokal .</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>Sampang Water Park (SWP)</t>
+  </si>
+  <si>
+    <t>Jl. Pahlawan No.I, Rw. I, Rong Tengah, Kec. Sampang, Kabupaten Sampang, Jawa Timur 69216</t>
+  </si>
+  <si>
+    <t>Sampang Water Park (SWP) adalah destinasi wisata air modern yang terletak di Madura. Diresmikan pada tahun 2023, SWP menawarkan berbagai wahana air yang cocok untuk semua usia, termasuk kolam renang anak dengan perosotan dan ember tumpah, kolam dewasa dengan seluncuran melingkar, serta kolam latihan berstandar nasional untuk atlet renang. Atraksi mandi busa dan menara pandang setinggi 24 meter menambah daya tarik tempat ini. Dengan fasilitas yang terus berkembang, seperti rencana penambahan bioskop 9 dimensi dan wahana lainnya, SWP menjadi pilihan rekreasi keluarga yang menyenangkan di Madura.</t>
+  </si>
+  <si>
+    <t>Api Tak Kunjung Padam</t>
+  </si>
+  <si>
+    <t>Pamekasan</t>
+  </si>
+  <si>
+    <t>Asemanis Satu, Larangan Tokol, Kec. Tlanakan, Kabupaten Pamekasan, Jawa Timur 69371</t>
+  </si>
+  <si>
+    <t>Api Tak Kunjung Padam adalah wisata alam unik yang menampilkan api abadi yang menyala dari dalam tanah. Fenomena ini terjadi karena keluarnya gas alam dari perut bumi yang membuat api terus menyala meskipun diguyur hujan. Tempat ini sering dijadikan lokasi bersantai, swafoto, hingga membakar jagung di atas api alami. Keunikan api abadi ini menarik perhatian wisatawan dari berbagai daerah. Legenda setempat menyebut api ini muncul dari tongkat seorang ulama yang ditancapkan saat pernikahannya berabad-abad lalu.</t>
+  </si>
+  <si>
+    <t>Parkit, Toilet, Warung</t>
+  </si>
+  <si>
+    <t>Ekowisata Mangrove Lembung</t>
+  </si>
+  <si>
+    <t>Bangkal, Lembung, Kec. Galis, Kabupaten Pamekasan, Jawa Timur 69382, Indonesia</t>
+  </si>
+  <si>
+    <t>Hutan mangrove di Desa Lembung, Pamekasan, Madura, mencakup sekitar 45 hektare dan berfungsi sebagai ekosistem penting yang melindungi pesisir dari abrasi. Dikelola sebagai ekowisata, hutan ini menawarkan keindahan alam dan keanekaragaman hayati, serta memberikan manfaat ekonomi bagi masyarakat setempat melalui kegiatan wisata dan penangkapan ikan.</t>
+  </si>
+  <si>
+    <t>Parkir, Warung, Toilet, Musollah, Spot Foto</t>
+  </si>
+  <si>
+    <t>Pantai Jumiang</t>
+  </si>
+  <si>
+    <t>Jl. Pantai Jumiang, Jumiang, Tanjung, Pademawu, Pamekasan Regency, East Java 69323, Indonesia</t>
+  </si>
+  <si>
+    <t>Toilet, Warung, Musollah, Gazebo</t>
+  </si>
+  <si>
+    <t>Pantai Talang Siring</t>
+  </si>
+  <si>
+    <t>Pacanan, Montok, Larangan, Pamekasan Regency, East Java 69383, Indonesia</t>
+  </si>
+  <si>
+    <t>Pantai ini menawarkan pemandangan indah dengan pepohonan mangrove yang lebat, serta berbagai fasilitas seperti kolam renang dan wahana permainan, menjadikannya destinasi wisata yang menarik bagi keluarga dan pengunjung. Pantai Talang Siring merupakan salah satu destinasi wisata unggulan di Pamekasan, Madura, yang terletak sekitar 14 km dari pusat kota. Pantai ini dikenal dengan keindahan alamnya yang memukau, dikelilingi oleh hutan mangrove yang rimbun dan pemandangan laut yang menawan.</t>
+  </si>
+  <si>
+    <t>Parkir, Warung, Toilet, Musollah, Gazebo</t>
+  </si>
+  <si>
+    <t>Pantai The Legend</t>
+  </si>
+  <si>
+    <t>Mor Laok, Pademawu Tim., Kec. Pademawu, Kabupaten Pamekasan, Jawa Timur 69323, Indonesia</t>
+  </si>
+  <si>
+    <t>Pantai The Legend atau Pantai Padelegan terletak di Dusun Laok Tambak, Desa Padelegan, Kecamatan Pademawu, Pamekasan, Madura. Pantai ini dikenal dengan keindahan alamnya yang memukau, dikelilingi oleh hutan bakau dan pohon cemara, serta menawarkan panorama luas yang nyaman untuk bersantai. Dengan jarak sekitar 14 km dari pusat kota Pamekasan, pantai ini menjadi destinasi wisata baru yang menarik bagi pengunjung.</t>
+  </si>
+  <si>
+    <t>Bukit Kehi</t>
+  </si>
+  <si>
+    <t>Moccol, Kertagena Daya, Kec. Kadur, Kabupaten Pamekasan, Jawa Timur 69355, Indonesia</t>
+  </si>
+  <si>
+    <t>Bukit Kehi di Pamekasan, Madura, adalah destinasi wisata yang menawarkan pemandangan alam yang indah dan sejuk. Dikelola oleh masyarakat setempat, tempat ini menyediakan berbagai fasilitas seperti kolam renang, wahana sepeda gantung, dan area bersantai, menjadikannya pilihan ideal untuk keluarga dan pengunjung yang mencari ketenangan</t>
+  </si>
+  <si>
+    <t>Spot Foto, Parkiran, Warung, Musollah, Toilet</t>
+  </si>
+  <si>
+    <t>Eduwisata Garam</t>
+  </si>
+  <si>
+    <t>Pandan, Kec. Galis, Kabupaten Pamekasan, Jawa Timur 69323, Indonesia</t>
+  </si>
+  <si>
+    <t>Eduwisata Garam Madura di Pamekasan adalah destinasi wisata yang mengedukasi pengunjung tentang proses produksi garam dan pentingnya industri garam bagi masyarakat lokal. Tempat ini menawarkan pengalaman langsung bagi pengunjung untuk belajar tentang teknik pembuatan garam tradisional serta manfaatnya.</t>
+  </si>
+  <si>
+    <t>Parkir, Toilet, Warung, Spot Foto</t>
+  </si>
+  <si>
+    <t>Kampung Durian Pamekasan</t>
+  </si>
+  <si>
+    <t>Tebul Tim., Kec. Pegantenan, Kabupaten Pamekasan, Jawa Timur 69361, Indonesia</t>
+  </si>
+  <si>
+    <t>Kampoeng Durian di Pamekasan, Madura, adalah destinasi wisata yang unik dan menarik, khususnya bagi para pecinta durian. Tempat ini menawarkan pengalaman yang berbeda dengan konsep agrowisata, di mana pengunjung dapat menikmati berbagai jenis durian segar langsung dari kebunnya.</t>
+  </si>
+  <si>
+    <t>Parkir, Gazebo</t>
+  </si>
+  <si>
+    <t>Kampung Toron Semalem</t>
+  </si>
+  <si>
+    <t>Toron Semalem, Blumbungan, Kec. Larangan, Kabupaten Pamekasan, Jawa Timur 69383, Indonesia</t>
+  </si>
+  <si>
+    <t>Kampoeng Toron Semalem di Pamekasan, Madura, adalah destinasi wisata yang menawarkan pengalaman unik dengan konsep perkampungan yang terinspirasi dari budaya lokal dan elemen-elemen menarik dari budaya lain. Tempat ini dirancang untuk memberikan suasana yang nyaman dan menyenangkan bagi pengunjung, baik untuk keluarga, pasangan, maupun kelompok.</t>
+  </si>
+  <si>
+    <t>Parkir, Toilet, Musollah, Warung, Homestay</t>
+  </si>
+  <si>
+    <t>Puncak Ratu</t>
+  </si>
+  <si>
+    <t>Kongsi, Tebul Bar., Kec. Pegantenan, Kabupaten Pamekasan, Jawa Timur 69361, Indonesia</t>
+  </si>
+  <si>
+    <t>Puncak Ratu Pamekasan adalah destinasi wisata alam yang terletak di Desa Tebul Barat, Kecamatan Pegantenan, sekitar 20 km dari pusat kota Pamekasan. Tempat ini menawarkan pemandangan indah perbukitan dan hutan yang asri, serta spot foto menarik. Puncak Ratu juga dilengkapi dengan kafe berarsitektur unik, menjadikannya tempat yang nyaman untuk bersantai dan menikmati keindahan alam. Pengunjung dapat melakukan berbagai aktivitas, termasuk camping dan menikmati suasana sejuk di area tersebut.</t>
+  </si>
+  <si>
+    <t>Parkir, Toilet, Musollah, Warung, Spot Foto, Camping Ground</t>
+  </si>
+  <si>
+    <t>Dusun Sannip, Brukoh, Sebelum Bukit, Kec. Pakong, Kabupaten Pamekasan, Jawa Timur 69352, Indonesia</t>
+  </si>
+  <si>
+    <t>Pasarean Batu Ampar</t>
+  </si>
+  <si>
+    <t>Dusun Batu Ampar, Pangbatok, Kec. Proppo, Kabupaten Pamekasan, Jawa Timur 69363</t>
+  </si>
+  <si>
+    <t>Pesarean Batu Ampar merupakan kompleks makam keramat yang menjadi tujuan wisata religi di Pamekasan, Madura. Di sini dimakamkan enam ulama besar, termasuk Syekh Abdul Manan, yang dikenal sebagai Bujuk Kosambi. Tempat ini tidak pernah sepi dari peziarah yang datang untuk berdoa dan mengkhatamkan Al-Qur’an, terutama pada malam Jumat dan bulan Ramadan. Nama "Batu Ampar" berasal dari bahasa Madura, di mana "bato" berarti batu dan "ampar" berarti terhampar, menggambarkan susunan batu yang rapi di area makam. Selain nilai spiritual, kompleks ini juga menyimpan sejarah penting dalam penyebaran Islam di Madura.</t>
+  </si>
+  <si>
+    <t>Parkir, Warung, Musollah, Toilet</t>
+  </si>
+  <si>
+    <t>Makam Ronggo Sukowati</t>
+  </si>
+  <si>
+    <t>Jl. Ronggosukowati, Kolpajung, Kec. Pamekasan, Kabupaten Pamekasan, Jawa Timur</t>
+  </si>
+  <si>
+    <t>Makam Panembahan Ronggo Sukowati adalah situs sejarah dan religi penting di Pamekasan, Madura. Panembahan Ronggo Sukowati, raja Islam pertama Pamekasan, dikenal sebagai tokoh yang membangun tata kota dan menyebarkan Islam di wilayah tersebut. Kompleks makamnya di Kolpajung menampilkan arsitektur tradisional dengan cungkup kayu jati dan ornamen khas Majapahit. Tempat ini menjadi tujuan ziarah, terutama saat bulan Ramadan dan peringatan Hari Jadi Pamekasan. Selain nilai spiritual, makam ini juga mencerminkan perpaduan budaya Islam dan warisan Majapahit yang kaya.</t>
+  </si>
+  <si>
+    <t>Museum Umum Mandhilaras</t>
+  </si>
+  <si>
+    <t>Jl. Cokroatmojo No.1, Rw. 03, Barurambat Kota, Kec. Pamekasan, Kabupaten Pamekasan, Jawa Timur 69317, Indonesia</t>
+  </si>
+  <si>
+    <t>Museum Mandhilaras adalah salah satu museum yang terletak di Pamekasan, Madura, yang memiliki peran penting dalam pelestarian dan pengenalan budaya serta sejarah daerah tersebut. Museum ini didirikan untuk menjadi pusat informasi dan edukasi mengenai warisan budaya, sejarah, dan tradisi masyarakat Madura.</t>
+  </si>
+  <si>
+    <t>Taman Edukasi "TITIK SEJUTA WARNA"</t>
+  </si>
+  <si>
+    <t>Jl.raya, Malangan, Pademawu Tim., Kec. Pademawu, Kabupaten Pamekasan, Jawa Timur 69323, Indonesia</t>
+  </si>
+  <si>
+    <t>Taman Edukasi Titik Sejuta Warna di Pamekasan, Madura, adalah destinasi wisata yang menggabungkan pendidikan dan rekreasi. Taman ini dirancang untuk memberikan pengalaman belajar yang menyenangkan bagi anak-anak dan keluarga, dengan berbagai wahana edukatif yang menarik.</t>
+  </si>
+  <si>
+    <t>Murtajih, Kec. Pademawu, Kabupaten Pamekasan, Jawa Timur 69323, Indonesia</t>
+  </si>
+  <si>
+    <t>Parkir, Toilet, Wahana</t>
+  </si>
+  <si>
+    <t>Gili Iyang</t>
+  </si>
+  <si>
+    <t>Sumenep</t>
+  </si>
+  <si>
+    <t>Banraas, Dungkek, Kota Sumenep</t>
+  </si>
+  <si>
+    <t>Gili Iyang dijuluki sebagai Pulau Oksigen, karena daerah ini memiliki kualitas oksigennya lebih baik dari daerah lain. Daerah ini juga dinobatkan sebagai daerah dengan  kadar udara terbersih nomor dua di dunia setelah Yordania. Gili yang berarti pulau dalam bahasa setempat memiliki luas sekitar 9,15 km2 yang didiami oleh dua desa, yaitu Desa Bancamara dan Banraas</t>
+  </si>
+  <si>
+    <t>Parkir, Toilet, Perahu, Mobil carter</t>
+  </si>
+  <si>
+    <t>Gili Labak</t>
+  </si>
+  <si>
+    <t>Desa Kombang, Kecamatan Talango, Kabupaten Sumenep, Jawa Timur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulau kecil menawan yang terletak di Selat Madura, tepatnya disebelah Tenggara Pulau Madura </t>
+  </si>
+  <si>
+    <t>Perahu, Warung, Toilet</t>
+  </si>
+  <si>
+    <t>Gua Jeruk</t>
+  </si>
+  <si>
+    <t>Desa Kebunagung, Kabupaten Sumenep.</t>
+  </si>
+  <si>
+    <t>objek wisata alam berupa gua yg terletak di sebuah dataran tinggi</t>
+  </si>
+  <si>
+    <t>Gua Payudan</t>
+  </si>
+  <si>
+    <t>Desa Payudan Daleman, Kecamatan Guluk-Guluk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gua bersajarah yang memiliki sejarah panjang sebagai tempat persemedian raja sumenep </t>
+  </si>
+  <si>
+    <t>Warung, Parkir</t>
+  </si>
+  <si>
+    <t>Goa Soekarno</t>
+  </si>
+  <si>
+    <t>Desa Panongan, Kecamatan Pasongsongan, Kabupaten Sumenep, Madura</t>
+  </si>
+  <si>
+    <t>gua alami dengan pesona dengan pesona hiasan kristal</t>
+  </si>
+  <si>
+    <t>Cafe, Parkir, Toilet</t>
+  </si>
+  <si>
+    <t>Mangrove Kedatim</t>
+  </si>
+  <si>
+    <t>Jl. Pelabuhan, Dusun Ro'soro, Kebundadap Tim., Kec. Saronggi, Kabupaten Sumenep</t>
+  </si>
+  <si>
+    <t>Cafe, Parkir, Toilet, Mushola, Kantin</t>
+  </si>
+  <si>
+    <t>Pantai Badur</t>
+  </si>
+  <si>
+    <t>Sergang, Kec. Batuputih, Kabupaten Sumenep</t>
+  </si>
+  <si>
+    <t>Pantai Badur menawarkan bentang pasir yang luas dan bersih, dilengkapi dengan debur ombak yang menenangkan dan barisan pohon cemara yang menambah keindahan suasana pantai yang masih alami</t>
+  </si>
+  <si>
+    <t>Parkir, Ruang Ganti</t>
+  </si>
+  <si>
+    <t>Pantai Lombang</t>
+  </si>
+  <si>
+    <t>Batang Batang, Sumenep Regency, East Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pantai lombang dengan daya tarik hamparan putih yang memiliki garis pantai yang panjang  </t>
+  </si>
+  <si>
+    <t>Warung, Toilet</t>
+  </si>
+  <si>
+    <t>Pantai Sembilan</t>
+  </si>
+  <si>
+    <t>Jalan Raya Bringsang, Bringsang, Giligenteng, Kabupaten Sumenep, Jawa Timur 69482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pantai sembilan dengan keindahan pasir putih yang lembut, air laut yang biru jernih serta pemandangan bawah laut yang indah </t>
+  </si>
+  <si>
+    <t>Warung, Toilet, ATV, Penginapan, Banana boat, Camping ground</t>
+  </si>
+  <si>
+    <t>Pantai Slopeng</t>
+  </si>
+  <si>
+    <t>Jalan Raya Ambunten No.34 Ambunten, Trebung Ghetteng, Sema"an, Kec. Dasuk, Kabupaten Sumenep, Jawa Timur 69455</t>
+  </si>
+  <si>
+    <t>pantai slopeng merupakan pantai dengan pasir gunung yang bersih dan sejuk</t>
+  </si>
+  <si>
+    <t>Warung, Toilet, Mushola</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gn. Tengah, Batuputih Daya, Kec. Batuputih, Kabupaten Sumenep, Jawa Timur 69453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisata batu putih atau wisata batu buwuh bawah yang menawarkan wisata alam dengan lanskap eksotis dengan formasi batu kapur yang unik, serta panorama pantai yang indah </t>
+  </si>
+  <si>
+    <t>Buddi, Lapa Laok, Kec. Dungkek, Kabupaten Sumenep, Jawa Timur 69474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bukit wisata kalompek dengan keindahan bukit untuk mempelajari dan memahami budaya madura </t>
+  </si>
+  <si>
+    <t>Bon Malang, Saronggi, Kec. Saronggi, Kabupaten Sumenep, Jawa Timur 69467</t>
+  </si>
+  <si>
+    <t>wisata telaga kermata dengan pemandangan telaga yang cantik dengan beberapa wahana permainan seperti perahu wisata, kolam renang anak, air mancur</t>
+  </si>
+  <si>
+    <t>perahu, sepeda air, parkir</t>
+  </si>
+  <si>
+    <t>Mutiara Tirta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jl. DR. Wahidin, Lingkungan Dhalem, Pajagalan, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisata kolam renang </t>
+  </si>
+  <si>
+    <t>toko, parkir, toilet, pelampung</t>
+  </si>
+  <si>
+    <t>Taman Tectona</t>
+  </si>
+  <si>
+    <t>Larangan, Torbang, Batuan, Sumenep Regency, East Java 69451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisata taman tectona dengan keindahan dan fasilitas seperti gazebo, taman pemandian, kolam renang </t>
+  </si>
+  <si>
+    <t>warung, gazebo, mushola, parkir, toilet</t>
+  </si>
+  <si>
+    <t>Tirta Sumekar Indah (TSI)</t>
+  </si>
+  <si>
+    <t>Jl. Raya Lenteng KM.4, Larangan, Torbang, Kec. Batuan, Kabupaten Sumenep, Jawa Timur 69451</t>
+  </si>
+  <si>
+    <t>taman wisata dengan pengalaman wahana air</t>
+  </si>
+  <si>
+    <t>lapangan futsal, toilet, parkir</t>
+  </si>
+  <si>
+    <t>Water Park Sumekar (WPS)</t>
+  </si>
+  <si>
+    <t>Kalebuan, Kasengan, Manding, Sumenep Regency, East Java 69452</t>
+  </si>
+  <si>
+    <t>parkir, toilet</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>XQRX+WX5, Billa Tompok, Daramesta, Kec. Lenteng, Kabupaten Sumenep, Jawa Timur 69461</t>
+  </si>
+  <si>
+    <t>wisata bukit tinggi yang menawarkan panorama yang menakjuban serta berbagai spot foto kekinian dan instagramable</t>
+  </si>
+  <si>
+    <t>toilet, mushola, dan tempat makan</t>
+  </si>
+  <si>
+    <t>Taman Kota Adipura</t>
+  </si>
+  <si>
+    <t>Jl. Veteran, Lingkungan Delama, Pajagalan, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taman adipura dengan area taman yang luas, sejuk, dan alternatif masyarakat untuk rekreasi dengan keluarga </t>
+  </si>
+  <si>
+    <t>Asta Gumuk Kertasada</t>
+  </si>
+  <si>
+    <t>Dusun Brambang RT 009 RW 003 Desa Kalimook, Sawah, Kalimo'ok, Kec. Kalianget, Kabupaten Sumenep, Jawa Timur 69471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisata sejarah makam dari kiai moh ali brambang </t>
+  </si>
+  <si>
+    <t>mushola, parkir, toilet</t>
+  </si>
+  <si>
+    <t>Asta Joko Tole</t>
+  </si>
+  <si>
+    <t>Sa'asa, Lanjuk, Kec. Manding, Kabupaten Sumenep, Jawa Timur 69452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisata religi mengenai sejarah Joko Tole  </t>
+  </si>
+  <si>
+    <t>Asta K Faqih</t>
+  </si>
+  <si>
+    <t>Jl. KH. Moenir gg 9, RT.02/RW.01, Daya Sungai, Lembung Bar., Kec. Lenteng, Kabupaten Sumenep, Jawa Timur 69461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisata religi makam seorang ulama asta k.faqih </t>
+  </si>
+  <si>
+    <t>Asta Katandur</t>
+  </si>
+  <si>
+    <t>2V3C+MP7, Asem Toronan, Pamolokan, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69412</t>
+  </si>
+  <si>
+    <t>wisata religi makam Syekh Achmad Baidawi atau pangeran katandur</t>
+  </si>
+  <si>
+    <t>mushola, parkir, toilet, alqur'an, café</t>
+  </si>
+  <si>
+    <t>Asta Panaongan</t>
+  </si>
+  <si>
+    <t>Benteng Utara, Panaongan, Kec. Pasongsongan, Kabupaten Sumenep, Jawa Timur 69457</t>
+  </si>
+  <si>
+    <t>wisata religi makam Kiai Sholeh atau Kiai Abu Syukari</t>
+  </si>
+  <si>
+    <t>Asta Sayyid Yusuf</t>
+  </si>
+  <si>
+    <t>Masjid, Talango, Kec. Talango, Kabupaten Sumenep, Jawa Timur 69481</t>
+  </si>
+  <si>
+    <t>Makam syekh yusuf</t>
+  </si>
+  <si>
+    <t>Makam Asta Tinggi</t>
+  </si>
+  <si>
+    <t>Jl. Asta Tinggi, Temor Lorong, Kebunagung, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69413</t>
+  </si>
+  <si>
+    <t>Asta Tinggi merupakan situs makam Raja-raja Sumenep dan keturunannya yang dibangun pada tahun 1763</t>
+  </si>
+  <si>
+    <t>Masjid Jamik Sumenep</t>
+  </si>
+  <si>
+    <t>Jl. Trunojoyo No.184, Dalem Anyar, Bangselok, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69416</t>
+  </si>
+  <si>
+    <t>wisata religi yang merupakan salah satu bangunan bersejarah</t>
+  </si>
+  <si>
+    <t>Museum Keraton</t>
+  </si>
+  <si>
+    <t>XJl. Dr. Sutomo No.6, Lingkungan Delama, Pajagalan, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69416</t>
+  </si>
+  <si>
+    <t>Museum Keraton Sumenep menyimpan berbagai benda bersejarah dan pusaka, termasuk dua kereta kencana, kursi pertemuan, tempat tidur raja, ukiran lambang perdamaian, dan peninggalan Sultan Abd Rachman seperti Al Quran dan kereta kuda</t>
+  </si>
+  <si>
+    <t>parkir, tempat ibadah, tempat makan, dan toko suvenir</t>
+  </si>
+  <si>
+    <t>Rumah Kasur Pasir</t>
+  </si>
+  <si>
+    <t>Jl. Air Tawar, Manggeran, Legung Bar., Kec. Batang Batang, Kabupaten Sumenep, Jawa Timur 69473</t>
+  </si>
+  <si>
+    <t>desa legung yang dikenal dengan tradisi tidur di atas pasir, di mana pasir menjadi alas tidur utama bagi warga</t>
+  </si>
+  <si>
+    <t>Musholla, Tempat makan, Balai pertemuan, Transportasi khusus ke wisata kampung pasir, toilet</t>
+  </si>
+  <si>
+    <t>Situs Batugong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desa Pancor, Pulau Sapudi, Sumenep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisata sejarah mengenai batu gong </t>
+  </si>
+  <si>
+    <t>warung, mushola, parkir, toilet</t>
+  </si>
+  <si>
+    <t>Pantai Keris</t>
+  </si>
+  <si>
+    <t>XX35+QQ2, Gersik Putih, Gapura, Sumenep Regency, East Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisata pantai dengan keunikan karena diapit oleh dua laut yang berbeda
+</t>
+  </si>
+  <si>
+    <t>Bancamara, Dungkek, Sumenep Regency, East Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desa wisata bancamara dengan wisata pendukung seperti goa mahakarya, batu cangga </t>
+  </si>
+  <si>
+    <t>warung, parkir, toilet</t>
+  </si>
+  <si>
+    <t>Pantai Sembilan Gili Genting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisata pantai di gili genting </t>
+  </si>
+  <si>
+    <t>parkir, toilet, musollah, kuliner</t>
+  </si>
+  <si>
+    <t>Pantai E Kaoghi</t>
+  </si>
+  <si>
+    <t>Nonggunong, Tanjung, Saronggi, Sumenep Regency, East Java 69467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pantai di desa tanjung, saronggi dengan pasir putih yang lembut dan air laut yang jernih </t>
+  </si>
+  <si>
+    <t>Bukit Tinggi Daramista</t>
+  </si>
+  <si>
+    <t>Billa Tompok, Daramesta, Kec. Lenteng, Kabupaten Sumenep, Jawa Timur 69461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisata bukit tinggi dengan panorama alam sumenep </t>
+  </si>
+  <si>
+    <t>Parkir, Toilet, Kuliner, Tempat Ibadah</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>openingHours</t>
+  </si>
+  <si>
+    <t>closingHours</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>visitor</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Rindu.jpg?alt=media&amp;token=88ebc627-ff89-4704-941e-df5c1dbb7f33</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPandela%20(Pantai%20Desa%20Lajing).jpg?alt=media&amp;token=9ac9f265-98f3-41ee-a6dd-3df0355b753c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Agung%20Arosbaya.jpg?alt=media&amp;token=8b6dc199-9eba-4e37-b3f5-ac8bc1c792fd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Biru.jpg?alt=media&amp;token=8551c0f9-c5e1-4615-80fd-067dcb8d1c14</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FApi%20Alam%20Konang.png?alt=media&amp;token=20fda9cc-7065-42af-89d8-bf4daa29b442</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FAir%20Terjun%20Kokop.jpg?alt=media&amp;token=438ea54d-5edf-47b0-a1c9-8e61e4da0e83</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FBukit%20Pendabah.jpeg?alt=media&amp;token=2a191061-c502-42e1-b365-0aefdf02117a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGunung%20Geger.jpg?alt=media&amp;token=44087d33-1461-437c-a97d-2f4a8609d644</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FHutan%20Mangrove%20Labuhan.jpg?alt=media&amp;token=bb7f6c31-f93d-4f2b-aa37-f8d8e41b43e9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Gebang.jpg?alt=media&amp;token=09475c53-061b-46de-b396-894b2b5b0735</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKampung%20Batik%20Paseseh.jpg?alt=media&amp;token=fd6ae440-68cc-4e87-9fb1-0135673f21b2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Siring%20Kemuning.png?alt=media&amp;token=65b89dd5-1822-46c5-b6e8-f2a68e605f9a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Lobuk%20Bumi%20Anyar.png?alt=media&amp;token=ce8e6adf-5ba8-418c-8cfd-f03ba812b3c4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKutai%20Sukbar.jpg?alt=media&amp;token=1c6cfbb5-77d2-4eb5-b2e3-dd4387b9963e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Rekreasi%20Kota%20Bangkalan.jpg?alt=media&amp;token=e1c6a57f-e4ce-4e62-8e8c-cd9f51354d8f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FStadion%20Kerapan%20sapi%20R.P%20Moh%20Noer.jpg?alt=media&amp;token=56b224c2-7736-4eff-ba58-4b33f1fec653</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKolla%20Langgundih.png?alt=media&amp;token=4716fdfb-8b4b-4305-9245-c823c03d39c0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Aer%20Mata%20Ebu.jpg?alt=media&amp;token=aa06dfc9-a300-4ad0-ac4f-f394cd74852c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Sultan%20Abdul%20Kadirun.jpg?alt=media&amp;token=b8aebc23-778f-4561-be56-6009023fe6d0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Sunan%20Cendana.jpg?alt=media&amp;token=a6fc7849-6cde-4d4a-9397-e773f9ffcb31</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Syaikhona%20Kholil.jpeg?alt=media&amp;token=92209284-9a27-4097-ac65-2c74bf677002</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMuseum%20Bangkalan%20Cakraningrat.jpg?alt=media&amp;token=4f179d8d-0c28-4d27-9d44-7da5346c79a4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMuseum%20Perusnia.jpeg?alt=media&amp;token=6c65c72e-80c0-4d6a-a52e-65fc625c679a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Tlangoh.jpg?alt=media&amp;token=8c31902d-cc17-440d-be92-1d317b975e08</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPerahu%20Sarimuna.jpeg?alt=media&amp;token=a3cc69be-9752-44e1-b720-51f705ab2a1f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FJembatan%20Harapan%20Bancaran.png?alt=media&amp;token=8a894c42-df5c-4ccd-97f3-06242a0b6f2f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGoa%20Petapa%20Beach.jpg?alt=media&amp;token=2cf30899-b97b-47a2-8002-437120a39958</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKrahiga.png?alt=media&amp;token=bcbd514a-2212-4031-ac4f-18b4a98ba9b4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FAir%20Terjun%20Toroan.jpg?alt=media&amp;token=b5a1f424-8e02-4f60-80fe-4703b12fea0b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGoa%20Lebar.jpg?alt=media&amp;token=1edbfbb4-68d6-418f-b31a-dcdfa84371f4</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FHutan%20Kera%20Nepa.jpg?alt=media&amp;token=21932d97-95fc-4df4-9c63-2bebf8c7db2c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkarang%20laut%20mandangin(2).JPG?alt=media&amp;token=f47b61de-d417-4bd6-b14f-199f790e3fd0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20camplong.JPG?alt=media&amp;token=be4054d1-e9c0-4f1e-9b22-2650dc356f65</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20lon%20malang.JPG?alt=media&amp;token=1b2e09ba-c26e-4df6-aac2-94dc31b53463</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwaduk%20klampis.JPG?alt=media&amp;token=6f0e1939-dce1-41a4-b544-2e5314411eb9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fsumur%20tujuh%20panji%20laras.JPG?alt=media&amp;token=496870ad-33b1-4af9-b49b-2bb84376bd09</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fsitus%20ratu%20ibu.JPG?alt=media&amp;token=cffa1939-a546-4709-8ae8-411ded562157</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fsitus%20trunojoyo.JPG?alt=media&amp;token=b589db6b-ed39-47a7-a053-90e5279a7920</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FDesa%20Budaya%20Kerapan%20Sapi%20Ketapang%20Barat.JPG?alt=media&amp;token=6e730f20-214f-4aa7-a5fc-9b2aa5f367a1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fdesa%20wisata%20petualangan%20panjat%20tebing%20margua.PNG?alt=media&amp;token=c9353ffd-cc07-4554-8f3e-8bf46f73d727</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmangrove%20sreseh.JPG?alt=media&amp;token=896e1328-2ca2-4a73-8dff-5dc13d59bd52</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampung%20tani%20panjalin.JPG?alt=media&amp;token=c7c16dfc-a3a9-470f-8e6a-203df1e273cd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampong%20milon%20napote.JPG?alt=media&amp;token=b73c404b-88d7-4742-b942-6b66846c99e9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FWMS%20Berung%20Ngambeng%20Spot%20Klobur.JPG?alt=media&amp;token=7f510ef7-5f73-4e83-9dbd-7ae88a647d2a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Wiyata%20Bahari%20Sampang.PNG?alt=media&amp;token=1dc70398-734e-4468-b371-b394a56c0019</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPerpustakaan%20Dan%20Arsip%20Kota%20Sampang.jpg?alt=media&amp;token=4736cb8a-a801-4ff2-b347-bd1f6201c5a9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20damar%20wulan.JPG?alt=media&amp;token=05f88ea5-0ad1-400c-977c-bbfa1ddd02dd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Impian%20Desa%20Rabian.PNG?alt=media&amp;token=56f4d544-370e-4769-9ba6-75e6d613b61f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwater%20park%20sumekar.jpeg?alt=media&amp;token=3a4aa8da-d83d-44a3-9d61-37285881cfea</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fapi%20tak%20kunjung%20padam.JPG?alt=media&amp;token=ba0f0359-ecd7-40fa-8ae3-00ba9183b137</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmangrove%20lembung.JPG?alt=media&amp;token=3cda0349-c8c3-4d3e-8956-681f238fe2f3</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20jumiang.JPG?alt=media&amp;token=4656031a-131b-4130-9be5-34d3d02d8bf1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20talang%20siring.JPG?alt=media&amp;token=bb49bd12-012d-4640-95cb-462c6f02890d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20the%20legend%20pamekasan.jpg?alt=media&amp;token=2f87ab11-3c6e-41d6-9adb-d76da82143af</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fbukit%20kehi.JPG?alt=media&amp;token=d229ccc1-86f9-4028-87e9-c1ce64c4c065</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Feduwisata%20garam.JPG?alt=media&amp;token=10ce58a8-9569-4846-9aac-002b8409cbca</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampung%20durian%20pmksn.JPG?alt=media&amp;token=15680e51-6745-4178-8bc6-138471c39f40</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampung%20toron%20semalem.JPG?alt=media&amp;token=468ce9d9-0e1c-4bc7-9d09-0dd183a97b2a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpuncak%20ratu.JPG?alt=media&amp;token=56725887-c317-4b69-8343-7c306aaabba9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20sawah.JPG?alt=media&amp;token=e697e7df-6eec-46e2-8ee0-7b5695d05bed</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpesarean%20batu%20ampar.JPG?alt=media&amp;token=42b3129a-839a-4639-bf03-c528fd809fd9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Ronggo%20Sukowati.JPG?alt=media&amp;token=d847b43c-33bc-46b2-bf74-79ce9ff73902</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmuseum%20mandhilaras.JPG?alt=media&amp;token=281e8794-8b97-4c15-8e37-467a6f3baa4d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftaman%20edukasi%20_titik%20sejuta%20warna_.JPG?alt=media&amp;token=31c2c79b-ce77-49f3-a9ec-184247e41735</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGili-Iyang.webp?alt=media&amp;token=287b1cb1-d0ae-4872-a197-bf3b96e9f35c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgili%20labak.jpeg?alt=media&amp;token=4df78c58-519d-4ffb-a32f-5c7005dec905</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgoa-jeruk-.webp?alt=media&amp;token=0646b252-a472-4c2b-a439-45bdc67df6c2</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgua%20payudan.jpeg?alt=media&amp;token=828c9689-a4bb-4cc8-9f90-0c7f605b119b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgoa%20soekarno.jpeg?alt=media&amp;token=ee32944d-a4cd-4400-ac57-36c4cc15f647</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmangrove%20kedatim.jpeg?alt=media&amp;token=730bdca0-6402-4c77-9099-509936d1b6fa</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20badur.jpeg?alt=media&amp;token=3afd679d-44e4-49be-ab32-251608288160</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20lombang.jpeg?alt=media&amp;token=e0f67109-bfa4-4ada-a91d-d1141155e5da</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20sembilan.jpeg?alt=media&amp;token=8ccea1de-e171-44fc-8750-468f0ff28c44</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20slopeng.jpeg?alt=media&amp;token=712b47c1-5b59-48e5-8986-0abe02d6d72e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20batu%20putih.jpeg?alt=media&amp;token=2a515026-5927-48a7-b64f-a3605b7655a3</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20bukit%20kalompek.jpeg?alt=media&amp;token=73a10a25-cc01-4e7f-a028-5e3922484948</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftelaga%20kirmata.jpeg?alt=media&amp;token=b8ca07e6-0619-4354-b7b6-1232af7fa424</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmutiara%20tirta.jpeg?alt=media&amp;token=6ef3e2bb-2c77-44fc-8b4b-2579d027752f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftaman%20tectona.jpeg?alt=media&amp;token=57546c84-5b22-4247-9034-64793f174f58</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftirta%20sumekar%20indah.jpeg?alt=media&amp;token=8c3e59e1-4d2d-4893-bec5-630960a7a4d1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20bukit%20tinggi%20daramista.jpeg?alt=media&amp;token=ae6054e5-6c1a-4264-9a3e-6b769d8299e6</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftaman%20kota%20adipura.jpeg?alt=media&amp;token=4eade221-54e7-4286-b644-7ee431b18361</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20gumuk%20kertasada.jpeg?alt=media&amp;token=3e66f717-b07a-430f-9376-0696fae65a2a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20joko%20tole.jpeg?alt=media&amp;token=f66fe5b2-2f82-4e3d-8b97-97fd7286b449</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20k%20faqih.jpeg?alt=media&amp;token=832e77e1-d0a1-4ab8-923f-f524e7651e6a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20katandur.jpeg?alt=media&amp;token=c2b5be88-e817-4bce-88cf-64c14cbb3811</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20panaongan.jpeg?alt=media&amp;token=e72135b1-36d8-4da1-94e2-36406ec4f112</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20sayyid%20yusuf.jpeg?alt=media&amp;token=2e181e1a-b9f3-4bde-a713-24615e6f070f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmakam%20asta%20tinggi.jpeg?alt=media&amp;token=fb464c44-c813-4156-8bef-69cfe7f4e176</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmasjid%20jami%20sumenep.jpeg?alt=media&amp;token=530940e8-d7d9-422c-99c3-69e1d687dc8e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmuseum%20keraton.jpeg?alt=media&amp;token=6886f735-71d5-4c0e-b639-be7718b118f7</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Frumah%20kasur%20pasir.jpeg?alt=media&amp;token=e10e0ac2-8bd6-4e8f-b70e-dec0de7ae4c1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FSitus%20Batugong.jpg?alt=media&amp;token=f5952726-05af-44a3-b30f-9e051f83d8fc</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20keris.jpeg?alt=media&amp;token=0f915461-f9dc-40cb-8947-266318da7091</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20sembilan%20gili%20genting.jpeg?alt=media&amp;token=008da410-c2c6-46e3-83ce-c83d718b6cf3</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20e%20kaoghi.jpeg?alt=media&amp;token=3a722f97-b497-4e0e-8b41-b50907e3f87b</t>
+  </si>
+  <si>
+    <t>imageURL</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Bukit%20Anjhir.jpg?alt=media&amp;token=eaffa015-3564-4348-ab1d-9843eb5644c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pantai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Religi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Budaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edukasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wahana Air</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FAgro%20Edu%20%20Kebun%20Bang%20Jani.jpg?alt=media&amp;token=b972b187-6d8c-4e8f-a33d-f0ff239b6a26</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2F%20Alam%20Kesek.jpg?alt=media&amp;token=8e9eed16-da1d-46bb-9c5e-32a6741b867b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2F%20Terpadu%20Bhurunan%20Murtajih.JPG?alt=media&amp;token=3b0e9c29-9292-428b-b638-293a6c733bc9</t>
+  </si>
+  <si>
+    <t>Agro Edu  Kebun Bang Jani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alam Kesek</t>
+  </si>
+  <si>
+    <t>Desa  Petualangan Panjat Tebing Murgua - Tamberu Daya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mangrove Sreseh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sawah</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terpadu Bhurunan Murtajih</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Batu Putih</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bukit Kalompek</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Telaga Kirmata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bukit Tinggi Daramista</t>
+  </si>
+  <si>
+    <t>Desa  Bancamara</t>
+  </si>
+  <si>
+    <t>Agro Edu  Kebun Bang Jani di Bangkalan merupakan destinasi wisata edukasi yang memadukan pengalaman bertani dengan wisata alam. Di sini, pengunjung dapat belajar tentang berbagai jenis tanaman sambil menikmati udara segar di kebun yang luas dan hijau, menjadikannya tempat yang tepat untuk keluarga dan pelajar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alam Kesek adalah kawasan wisata alam yang terletak di Bangkalan, menawarkan pemandangan alam yang asri dan segar. Pengunjung dapat menikmati keindahan alam pegunungan, udara sejuk, dan berbagai aktivitas outdoor yang menyegarkan tubuh dan pikiran.</t>
+  </si>
+  <si>
+    <t>Desa  Petualangan Panjat Tebing Murgua – Tamberu Daya adalah destinasi wisata alam di Dusun Rojing, Desa Tamberu Daya, Kecamatan Sokobanah, Kabupaten Sampang, Madura. Dikenal dengan tebing alami yang menantang, desa ini menjadi tempat favorit bagi pecinta panjat tebing dan petualangan. Lokasinya yang berada di antara sungai dan perbukitan memberikan pengalaman unik dan pemandangan yang memukau bagi pengunjung. Dengan suasana pedesaan yang asri, Desa  Murgua menjadi pilihan tepat untuk menikmati wisata alam dan petualangan di Madura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mangrove Sreseh adalah destinasi ekowisata yang terletak di Desa Marparan, Kecamatan Sreseh, Kabupaten Sampang, Madura. Dikelola oleh Kelompok Sadar  (Pokdarwis) setempat, kawasan ini menawarkan pengalaman menyusuri hutan mangrove yang asri melalui jalur air dengan perahu. Pengunjung dapat menikmati keindahan alam, berfoto di berbagai spot menarik, serta mencicipi hidangan laut segar seperti ikan, udang, dan kepiting. Akses ke lokasi ini memerlukan penyeberangan sungai menggunakan perahu, menambah daya tarik tersendiri bagi wisatawan.</t>
+  </si>
+  <si>
+    <t>WMS Berung Ngambeng Spot Klobur adalah destinasi wisata berbasis komunitas di Desa Klobur, Kecamatan Sreseh, Kabupaten Sampang, Madura. Diresmikan pada 3 Oktober 2022, tempat ini menggabungkan keindahan hutan mangrove dengan konsep warung apung di atas sungai, menawarkan pengalaman unik bagi pengunjung. Fasilitas yang tersedia meliputi jalur tracking apung, perahu bebek, susur sungai, paket edukasi mangrove, area pemancingan, serta kafe dengan hidangan lokal. Dikelola oleh Pokdarwis Klobur Mandiri, destinasi ini beroperasi setiap hari dari pukul 08.00 hingga 00.00 WIB. Keunikan dan potensi wisata ini telah membawa Desa Klobur masuk dalam 500 besar Anugerah Desa  Indonesia (ADWI) 2024. 
 sisparnas.kemenparekraf.go.id
 +3</t>
   </si>
   <si>
-    <t>Taman Wiyata Bahari Sampang</t>
-  </si>
-  <si>
-    <t>Rw. II, Dalpenang, Kec. Sampang, Kabupaten Sampang, Jawa Timur 69216</t>
-  </si>
-  <si>
-    <t>Taman Wiyata Bahari adalah taman kota yang terletak di Madura. Taman ini menjadi ruang terbuka hijau yang menawarkan suasana santai bagi warga untuk bersantai dan beraktivitas. Namun, dalam beberapa waktu terakhir, taman ini mengalami penurunan kunjungan akibat minimnya perawatan dan fasilitas yang kurang memadai, seperti kolam yang tidak terawat yang kini sering digunakan anak-anak untuk berenang secara dadakan . Meskipun demikian, Taman Wiyata Bahari tetap menjadi pilihan rekreasi murah bagi masyarakat sekitar.</t>
-  </si>
-  <si>
-    <t>Parkir, Toilet, Musollah, Warung</t>
-  </si>
-  <si>
-    <t>Perpustakaan Dan Arsip Kota Sampang</t>
-  </si>
-  <si>
-    <t>Rw. III, Rong Tengah, Kec. Sampang, Kabupaten Sampang, Jawa Timur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perpustakaan dan Arsip Kabupaten Sampang adalah lembaga layanan publik yang dikelola oleh Dinas Perpustakaan dan Kearsipan Kabupaten Sampang. Berperan sebagai pusat literasi dan pelestarian dokumen daerah, perpustakaan ini menyediakan koleksi buku cetak dan digital, serta akses Wi-Fi gratis bagi pengunjung. Dengan penerapan Program Transformasi Perpustakaan Berbasis Inklusi Sosial (TPBIS), perpustakaan ini berupaya meningkatkan kreativitas dan kemandirian masyarakat melalui berbagai kegiatan literasi. Gedung layanan perpustakaan ini diresmikan pada 23 November 2023 oleh Bupati Sampang, sebagai wujud komitmen dalam meningkatkan kualitas sumber daya manusia melalui literasi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantai Damar Wulan </t>
-  </si>
-  <si>
-    <t>Takong, Aeng Sareh, Kec. Sampang, Kabupaten Sampang, Jawa Timur</t>
-  </si>
-  <si>
-    <t>Pantai Damar Wulan adalah destinasi wisata alam yang terletak di Madura, sekitar 5 kilometer dari pusat kota. Pantai ini menawarkan pasir putih yang lembut, air laut jernih, dan ombak yang tenang, menjadikannya tempat ideal untuk bersantai dan berenang bersama keluarga. Keunikan pantai ini terletak pada keberadaan tambak garam di seberangnya, memungkinkan pengunjung menyaksikan proses produksi garam secara langsung . Selain itu, deretan tanaman mangrove di sepanjang bibir pantai menambah keindahan alami kawasan ini. Meskipun fasilitas seperti toilet dan area parkir masih terbatas, Pantai Damar Wulan tetap menjadi pilihan favorit wisatawan, terutama saat libur Lebaran, karena keindahan alamnya yang memukau .</t>
-  </si>
-  <si>
-    <t>Taman Impian Desa Rabian</t>
-  </si>
-  <si>
-    <t>Sembung, Rabiyan, Kec. Ketapang, Kabupaten Sampang, Jawa Timur 69261</t>
-  </si>
-  <si>
-    <t>Taman Impian Rabiyan adalah destinasi wisata keluarga yang terletak di Desa Rabiyan, Kecamatan Ketapang, Kabupaten Sampang, Madura. Tempat ini menawarkan pengalaman wisata yang berfokus pada pelestarian budaya, pemberdayaan komunitas lokal, dan pendidikan, menjadikannya cocok untuk liburan bersama keluarga dan sahabat. Dengan suasana alam yang asri, Taman Impian Rabiyan menyediakan berbagai fasilitas rekreasi yang dapat dinikmati oleh pengunjung dari berbagai usia. Selain itu, taman ini juga menjadi lokasi untuk berbagai kegiatan komunitas, seperti balap motor cross, yang menambah daya tariknya sebagai pusat aktivitas masyarakat setempat. Dengan konsep wisata berbasis komunitas, Taman Impian Rabiyan berupaya memberikan pengalaman positif bagi wisatawan sambil mendukung pelestarian budaya dan alam lokal .</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>Sampang Water Park (SWP)</t>
-  </si>
-  <si>
-    <t>Jl. Pahlawan No.I, Rw. I, Rong Tengah, Kec. Sampang, Kabupaten Sampang, Jawa Timur 69216</t>
-  </si>
-  <si>
-    <t>Sampang Water Park (SWP) adalah destinasi wisata air modern yang terletak di Madura. Diresmikan pada tahun 2023, SWP menawarkan berbagai wahana air yang cocok untuk semua usia, termasuk kolam renang anak dengan perosotan dan ember tumpah, kolam dewasa dengan seluncuran melingkar, serta kolam latihan berstandar nasional untuk atlet renang. Atraksi mandi busa dan menara pandang setinggi 24 meter menambah daya tarik tempat ini. Dengan fasilitas yang terus berkembang, seperti rencana penambahan bioskop 9 dimensi dan wahana lainnya, SWP menjadi pilihan rekreasi keluarga yang menyenangkan di Madura.</t>
-  </si>
-  <si>
-    <t>Api Tak Kunjung Padam</t>
-  </si>
-  <si>
-    <t>Pamekasan</t>
-  </si>
-  <si>
-    <t>Asemanis Satu, Larangan Tokol, Kec. Tlanakan, Kabupaten Pamekasan, Jawa Timur 69371</t>
-  </si>
-  <si>
-    <t>Api Tak Kunjung Padam adalah wisata alam unik yang menampilkan api abadi yang menyala dari dalam tanah. Fenomena ini terjadi karena keluarnya gas alam dari perut bumi yang membuat api terus menyala meskipun diguyur hujan. Tempat ini sering dijadikan lokasi bersantai, swafoto, hingga membakar jagung di atas api alami. Keunikan api abadi ini menarik perhatian wisatawan dari berbagai daerah. Legenda setempat menyebut api ini muncul dari tongkat seorang ulama yang ditancapkan saat pernikahannya berabad-abad lalu.</t>
-  </si>
-  <si>
-    <t>Parkit, Toilet, Warung</t>
-  </si>
-  <si>
-    <t>Ekowisata Mangrove Lembung</t>
-  </si>
-  <si>
-    <t>Bangkal, Lembung, Kec. Galis, Kabupaten Pamekasan, Jawa Timur 69382, Indonesia</t>
-  </si>
-  <si>
-    <t>Hutan mangrove di Desa Lembung, Pamekasan, Madura, mencakup sekitar 45 hektare dan berfungsi sebagai ekosistem penting yang melindungi pesisir dari abrasi. Dikelola sebagai ekowisata, hutan ini menawarkan keindahan alam dan keanekaragaman hayati, serta memberikan manfaat ekonomi bagi masyarakat setempat melalui kegiatan wisata dan penangkapan ikan.</t>
-  </si>
-  <si>
-    <t>Parkir, Warung, Toilet, Musollah, Spot Foto</t>
-  </si>
-  <si>
-    <t>Pantai Jumiang</t>
-  </si>
-  <si>
-    <t>Jl. Pantai Jumiang, Jumiang, Tanjung, Pademawu, Pamekasan Regency, East Java 69323, Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wisata Pantai Jumiang, kini menjadi destinasi wisata favorit bagi masyarakat Pamekasan. Anda bisa menyaksikan panorama laut dari atas bukit melihat warna lautnya yang biru. Pantai Jumiang di Pamekasan ini bebas dari ombak besar dan pemandangannya juga indah. </t>
-  </si>
-  <si>
-    <t>Toilet, Warung, Musollah, Gazebo</t>
-  </si>
-  <si>
-    <t>Pantai Talang Siring</t>
-  </si>
-  <si>
-    <t>Pacanan, Montok, Larangan, Pamekasan Regency, East Java 69383, Indonesia</t>
-  </si>
-  <si>
-    <t>Pantai ini menawarkan pemandangan indah dengan pepohonan mangrove yang lebat, serta berbagai fasilitas seperti kolam renang dan wahana permainan, menjadikannya destinasi wisata yang menarik bagi keluarga dan pengunjung. Pantai Talang Siring merupakan salah satu destinasi wisata unggulan di Pamekasan, Madura, yang terletak sekitar 14 km dari pusat kota. Pantai ini dikenal dengan keindahan alamnya yang memukau, dikelilingi oleh hutan mangrove yang rimbun dan pemandangan laut yang menawan.</t>
-  </si>
-  <si>
-    <t>Parkir, Warung, Toilet, Musollah, Gazebo</t>
-  </si>
-  <si>
-    <t>Pantai The Legend</t>
-  </si>
-  <si>
-    <t>Mor Laok, Pademawu Tim., Kec. Pademawu, Kabupaten Pamekasan, Jawa Timur 69323, Indonesia</t>
-  </si>
-  <si>
-    <t>Pantai The Legend atau Pantai Padelegan terletak di Dusun Laok Tambak, Desa Padelegan, Kecamatan Pademawu, Pamekasan, Madura. Pantai ini dikenal dengan keindahan alamnya yang memukau, dikelilingi oleh hutan bakau dan pohon cemara, serta menawarkan panorama luas yang nyaman untuk bersantai. Dengan jarak sekitar 14 km dari pusat kota Pamekasan, pantai ini menjadi destinasi wisata baru yang menarik bagi pengunjung.</t>
-  </si>
-  <si>
-    <t>Bukit Kehi</t>
-  </si>
-  <si>
-    <t>Moccol, Kertagena Daya, Kec. Kadur, Kabupaten Pamekasan, Jawa Timur 69355, Indonesia</t>
-  </si>
-  <si>
-    <t>Bukit Kehi di Pamekasan, Madura, adalah destinasi wisata yang menawarkan pemandangan alam yang indah dan sejuk. Dikelola oleh masyarakat setempat, tempat ini menyediakan berbagai fasilitas seperti kolam renang, wahana sepeda gantung, dan area bersantai, menjadikannya pilihan ideal untuk keluarga dan pengunjung yang mencari ketenangan</t>
-  </si>
-  <si>
-    <t>Spot Foto, Parkiran, Warung, Musollah, Toilet</t>
-  </si>
-  <si>
-    <t>Eduwisata Garam</t>
-  </si>
-  <si>
-    <t>Pandan, Kec. Galis, Kabupaten Pamekasan, Jawa Timur 69323, Indonesia</t>
-  </si>
-  <si>
-    <t>Eduwisata Garam Madura di Pamekasan adalah destinasi wisata yang mengedukasi pengunjung tentang proses produksi garam dan pentingnya industri garam bagi masyarakat lokal. Tempat ini menawarkan pengalaman langsung bagi pengunjung untuk belajar tentang teknik pembuatan garam tradisional serta manfaatnya.</t>
-  </si>
-  <si>
-    <t>Parkir, Toilet, Warung, Spot Foto</t>
-  </si>
-  <si>
-    <t>Kampung Durian Pamekasan</t>
-  </si>
-  <si>
-    <t>Tebul Tim., Kec. Pegantenan, Kabupaten Pamekasan, Jawa Timur 69361, Indonesia</t>
-  </si>
-  <si>
-    <t>Kampoeng Durian di Pamekasan, Madura, adalah destinasi wisata yang unik dan menarik, khususnya bagi para pecinta durian. Tempat ini menawarkan pengalaman yang berbeda dengan konsep agrowisata, di mana pengunjung dapat menikmati berbagai jenis durian segar langsung dari kebunnya.</t>
-  </si>
-  <si>
-    <t>Parkir, Gazebo</t>
-  </si>
-  <si>
-    <t>Kampung Toron Semalem</t>
-  </si>
-  <si>
-    <t>Toron Semalem, Blumbungan, Kec. Larangan, Kabupaten Pamekasan, Jawa Timur 69383, Indonesia</t>
-  </si>
-  <si>
-    <t>Kampoeng Toron Semalem di Pamekasan, Madura, adalah destinasi wisata yang menawarkan pengalaman unik dengan konsep perkampungan yang terinspirasi dari budaya lokal dan elemen-elemen menarik dari budaya lain. Tempat ini dirancang untuk memberikan suasana yang nyaman dan menyenangkan bagi pengunjung, baik untuk keluarga, pasangan, maupun kelompok.</t>
-  </si>
-  <si>
-    <t>Parkir, Toilet, Musollah, Warung, Homestay</t>
-  </si>
-  <si>
-    <t>Puncak Ratu</t>
-  </si>
-  <si>
-    <t>Kongsi, Tebul Bar., Kec. Pegantenan, Kabupaten Pamekasan, Jawa Timur 69361, Indonesia</t>
-  </si>
-  <si>
-    <t>Puncak Ratu Pamekasan adalah destinasi wisata alam yang terletak di Desa Tebul Barat, Kecamatan Pegantenan, sekitar 20 km dari pusat kota Pamekasan. Tempat ini menawarkan pemandangan indah perbukitan dan hutan yang asri, serta spot foto menarik. Puncak Ratu juga dilengkapi dengan kafe berarsitektur unik, menjadikannya tempat yang nyaman untuk bersantai dan menikmati keindahan alam. Pengunjung dapat melakukan berbagai aktivitas, termasuk camping dan menikmati suasana sejuk di area tersebut.</t>
-  </si>
-  <si>
-    <t>Parkir, Toilet, Musollah, Warung, Spot Foto, Camping Ground</t>
-  </si>
-  <si>
-    <t>Wisata Sawah</t>
-  </si>
-  <si>
-    <t>Dusun Sannip, Brukoh, Sebelum Bukit, Kec. Pakong, Kabupaten Pamekasan, Jawa Timur 69352, Indonesia</t>
-  </si>
-  <si>
-    <t>Wisata sawah di Pamekasan tidak hanya menawarkan keindahan alam, tetapi juga pengalaman budaya yang mendalam, menjadikannya destinasi menarik bagi wisatawan yang ingin merasakan kehidupan pedesaan Madura. Wisata sawah di Pamekasan, Madura, juga dikenal dengan keindahan alamnya yang menawan dan suasana yang tenang. Destinasi ini menjadi pilihan bagi mereka yang ingin melarikan diri dari hiruk-pikuk kota dan menikmati ketenangan pedesaan.</t>
-  </si>
-  <si>
-    <t>Pasarean Batu Ampar</t>
-  </si>
-  <si>
-    <t>Dusun Batu Ampar, Pangbatok, Kec. Proppo, Kabupaten Pamekasan, Jawa Timur 69363</t>
-  </si>
-  <si>
-    <t>Pesarean Batu Ampar merupakan kompleks makam keramat yang menjadi tujuan wisata religi di Pamekasan, Madura. Di sini dimakamkan enam ulama besar, termasuk Syekh Abdul Manan, yang dikenal sebagai Bujuk Kosambi. Tempat ini tidak pernah sepi dari peziarah yang datang untuk berdoa dan mengkhatamkan Al-Qur’an, terutama pada malam Jumat dan bulan Ramadan. Nama "Batu Ampar" berasal dari bahasa Madura, di mana "bato" berarti batu dan "ampar" berarti terhampar, menggambarkan susunan batu yang rapi di area makam. Selain nilai spiritual, kompleks ini juga menyimpan sejarah penting dalam penyebaran Islam di Madura.</t>
-  </si>
-  <si>
-    <t>Parkir, Warung, Musollah, Toilet</t>
-  </si>
-  <si>
-    <t>Makam Ronggo Sukowati</t>
-  </si>
-  <si>
-    <t>Jl. Ronggosukowati, Kolpajung, Kec. Pamekasan, Kabupaten Pamekasan, Jawa Timur</t>
-  </si>
-  <si>
-    <t>Makam Panembahan Ronggo Sukowati adalah situs sejarah dan religi penting di Pamekasan, Madura. Panembahan Ronggo Sukowati, raja Islam pertama Pamekasan, dikenal sebagai tokoh yang membangun tata kota dan menyebarkan Islam di wilayah tersebut. Kompleks makamnya di Kolpajung menampilkan arsitektur tradisional dengan cungkup kayu jati dan ornamen khas Majapahit. Tempat ini menjadi tujuan ziarah, terutama saat bulan Ramadan dan peringatan Hari Jadi Pamekasan. Selain nilai spiritual, makam ini juga mencerminkan perpaduan budaya Islam dan warisan Majapahit yang kaya.</t>
-  </si>
-  <si>
-    <t>Museum Umum Mandhilaras</t>
-  </si>
-  <si>
-    <t>Jl. Cokroatmojo No.1, Rw. 03, Barurambat Kota, Kec. Pamekasan, Kabupaten Pamekasan, Jawa Timur 69317, Indonesia</t>
-  </si>
-  <si>
-    <t>Museum Mandhilaras adalah salah satu museum yang terletak di Pamekasan, Madura, yang memiliki peran penting dalam pelestarian dan pengenalan budaya serta sejarah daerah tersebut. Museum ini didirikan untuk menjadi pusat informasi dan edukasi mengenai warisan budaya, sejarah, dan tradisi masyarakat Madura.</t>
-  </si>
-  <si>
-    <t>Taman Edukasi "TITIK SEJUTA WARNA"</t>
-  </si>
-  <si>
-    <t>Jl.raya, Malangan, Pademawu Tim., Kec. Pademawu, Kabupaten Pamekasan, Jawa Timur 69323, Indonesia</t>
-  </si>
-  <si>
-    <t>Taman Edukasi Titik Sejuta Warna di Pamekasan, Madura, adalah destinasi wisata yang menggabungkan pendidikan dan rekreasi. Taman ini dirancang untuk memberikan pengalaman belajar yang menyenangkan bagi anak-anak dan keluarga, dengan berbagai wahana edukatif yang menarik.</t>
-  </si>
-  <si>
-    <t>Wisata Terpadu Bhurunan Murtajih</t>
-  </si>
-  <si>
-    <t>Murtajih, Kec. Pademawu, Kabupaten Pamekasan, Jawa Timur 69323, Indonesia</t>
-  </si>
-  <si>
-    <t>Wisata Terpadu Bhurunan Murtajih (WTBM) adalah destinasi wisata yang terletak di Pamekasan, Madura, yang menawarkan pengalaman wisata yang beragam dan menarik. Dikenal sebagai tempat rekreasi keluarga, WTBM menggabungkan keindahan alam dengan berbagai fasilitas modern, menjadikannya pilihan ideal untuk menghabiskan waktu bersama keluarga dan teman.</t>
-  </si>
-  <si>
-    <t>Parkir, Toilet, Wahana</t>
-  </si>
-  <si>
-    <t>Gili Iyang</t>
-  </si>
-  <si>
-    <t>Sumenep</t>
-  </si>
-  <si>
-    <t>Banraas, Dungkek, Kota Sumenep</t>
-  </si>
-  <si>
-    <t>Gili Iyang dijuluki sebagai Pulau Oksigen, karena daerah ini memiliki kualitas oksigennya lebih baik dari daerah lain. Daerah ini juga dinobatkan sebagai daerah dengan  kadar udara terbersih nomor dua di dunia setelah Yordania. Gili yang berarti pulau dalam bahasa setempat memiliki luas sekitar 9,15 km2 yang didiami oleh dua desa, yaitu Desa Bancamara dan Banraas</t>
-  </si>
-  <si>
-    <t>Parkir, Toilet, Perahu, Mobil carter</t>
-  </si>
-  <si>
-    <t>Gili Labak</t>
-  </si>
-  <si>
-    <t>Desa Kombang, Kecamatan Talango, Kabupaten Sumenep, Jawa Timur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pulau kecil menawan yang terletak di Selat Madura, tepatnya disebelah Tenggara Pulau Madura </t>
-  </si>
-  <si>
-    <t>Perahu, Warung, Toilet</t>
-  </si>
-  <si>
-    <t>Gua Jeruk</t>
-  </si>
-  <si>
-    <t>Desa Kebunagung, Kabupaten Sumenep.</t>
-  </si>
-  <si>
-    <t>objek wisata alam berupa gua yg terletak di sebuah dataran tinggi</t>
-  </si>
-  <si>
-    <t>Gua Payudan</t>
-  </si>
-  <si>
-    <t>Desa Payudan Daleman, Kecamatan Guluk-Guluk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gua bersajarah yang memiliki sejarah panjang sebagai tempat persemedian raja sumenep </t>
-  </si>
-  <si>
-    <t>Warung, Parkir</t>
-  </si>
-  <si>
-    <t>Goa Soekarno</t>
-  </si>
-  <si>
-    <t>Desa Panongan, Kecamatan Pasongsongan, Kabupaten Sumenep, Madura</t>
-  </si>
-  <si>
-    <t>gua alami dengan pesona dengan pesona hiasan kristal</t>
-  </si>
-  <si>
-    <t>Cafe, Parkir, Toilet</t>
-  </si>
-  <si>
-    <t>Mangrove Kedatim</t>
-  </si>
-  <si>
-    <t>Jl. Pelabuhan, Dusun Ro'soro, Kebundadap Tim., Kec. Saronggi, Kabupaten Sumenep</t>
-  </si>
-  <si>
-    <t>Wisata yang menawarkan keindahan hutan bakau dan suasana yang sejuk dan nyaman</t>
-  </si>
-  <si>
-    <t>Cafe, Parkir, Toilet, Mushola, Kantin</t>
-  </si>
-  <si>
-    <t>Pantai Badur</t>
-  </si>
-  <si>
-    <t>Sergang, Kec. Batuputih, Kabupaten Sumenep</t>
-  </si>
-  <si>
-    <t>Pantai Badur menawarkan bentang pasir yang luas dan bersih, dilengkapi dengan debur ombak yang menenangkan dan barisan pohon cemara yang menambah keindahan suasana pantai yang masih alami</t>
-  </si>
-  <si>
-    <t>Parkir, Ruang Ganti</t>
-  </si>
-  <si>
-    <t>Pantai Lombang</t>
-  </si>
-  <si>
-    <t>Batang Batang, Sumenep Regency, East Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pantai lombang dengan daya tarik hamparan putih yang memiliki garis pantai yang panjang  </t>
-  </si>
-  <si>
-    <t>Warung, Toilet</t>
-  </si>
-  <si>
-    <t>Pantai Sembilan</t>
-  </si>
-  <si>
-    <t>Jalan Raya Bringsang, Bringsang, Giligenteng, Kabupaten Sumenep, Jawa Timur 69482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pantai sembilan dengan keindahan pasir putih yang lembut, air laut yang biru jernih serta pemandangan bawah laut yang indah </t>
-  </si>
-  <si>
-    <t>Warung, Toilet, ATV, Penginapan, Banana boat, Camping ground</t>
-  </si>
-  <si>
-    <t>Pantai Slopeng</t>
-  </si>
-  <si>
-    <t>Jalan Raya Ambunten No.34 Ambunten, Trebung Ghetteng, Sema"an, Kec. Dasuk, Kabupaten Sumenep, Jawa Timur 69455</t>
-  </si>
-  <si>
-    <t>pantai slopeng merupakan pantai dengan pasir gunung yang bersih dan sejuk</t>
-  </si>
-  <si>
-    <t>Warung, Toilet, Mushola</t>
-  </si>
-  <si>
-    <t>Wisata Batu Putih</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gn. Tengah, Batuputih Daya, Kec. Batuputih, Kabupaten Sumenep, Jawa Timur 69453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisata batu putih atau wisata batu buwuh bawah yang menawarkan wisata alam dengan lanskap eksotis dengan formasi batu kapur yang unik, serta panorama pantai yang indah </t>
-  </si>
-  <si>
-    <t>Wisata Bukit Kalompek</t>
-  </si>
-  <si>
-    <t>Buddi, Lapa Laok, Kec. Dungkek, Kabupaten Sumenep, Jawa Timur 69474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bukit wisata kalompek dengan keindahan bukit untuk mempelajari dan memahami budaya madura </t>
-  </si>
-  <si>
-    <t>Wisata Telaga Kirmata</t>
-  </si>
-  <si>
-    <t>Bon Malang, Saronggi, Kec. Saronggi, Kabupaten Sumenep, Jawa Timur 69467</t>
-  </si>
-  <si>
-    <t>wisata telaga kermata dengan pemandangan telaga yang cantik dengan beberapa wahana permainan seperti perahu wisata, kolam renang anak, air mancur</t>
-  </si>
-  <si>
-    <t>perahu, sepeda air, parkir</t>
-  </si>
-  <si>
-    <t>Mutiara Tirta</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jl. DR. Wahidin, Lingkungan Dhalem, Pajagalan, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisata kolam renang </t>
-  </si>
-  <si>
-    <t>toko, parkir, toilet, pelampung</t>
-  </si>
-  <si>
-    <t>Taman Tectona</t>
-  </si>
-  <si>
-    <t>Larangan, Torbang, Batuan, Sumenep Regency, East Java 69451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisata taman tectona dengan keindahan dan fasilitas seperti gazebo, taman pemandian, kolam renang </t>
-  </si>
-  <si>
-    <t>warung, gazebo, mushola, parkir, toilet</t>
-  </si>
-  <si>
-    <t>Tirta Sumekar Indah (TSI)</t>
-  </si>
-  <si>
-    <t>Jl. Raya Lenteng KM.4, Larangan, Torbang, Kec. Batuan, Kabupaten Sumenep, Jawa Timur 69451</t>
-  </si>
-  <si>
-    <t>taman wisata dengan pengalaman wahana air</t>
-  </si>
-  <si>
-    <t>lapangan futsal, toilet, parkir</t>
-  </si>
-  <si>
-    <t>Water Park Sumekar (WPS)</t>
-  </si>
-  <si>
-    <t>Kalebuan, Kasengan, Manding, Sumenep Regency, East Java 69452</t>
-  </si>
-  <si>
-    <t>parkir, toilet</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>Wisata Bukit Tinggi Daramista</t>
-  </si>
-  <si>
-    <t>XQRX+WX5, Billa Tompok, Daramesta, Kec. Lenteng, Kabupaten Sumenep, Jawa Timur 69461</t>
-  </si>
-  <si>
-    <t>wisata bukit tinggi yang menawarkan panorama yang menakjuban serta berbagai spot foto kekinian dan instagramable</t>
-  </si>
-  <si>
-    <t>toilet, mushola, dan tempat makan</t>
-  </si>
-  <si>
-    <t>Taman Kota Adipura</t>
-  </si>
-  <si>
-    <t>Jl. Veteran, Lingkungan Delama, Pajagalan, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taman adipura dengan area taman yang luas, sejuk, dan alternatif masyarakat untuk rekreasi dengan keluarga </t>
-  </si>
-  <si>
-    <t>Asta Gumuk Kertasada</t>
-  </si>
-  <si>
-    <t>Dusun Brambang RT 009 RW 003 Desa Kalimook, Sawah, Kalimo'ok, Kec. Kalianget, Kabupaten Sumenep, Jawa Timur 69471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisata sejarah makam dari kiai moh ali brambang </t>
-  </si>
-  <si>
-    <t>mushola, parkir, toilet</t>
-  </si>
-  <si>
-    <t>Asta Joko Tole</t>
-  </si>
-  <si>
-    <t>Sa'asa, Lanjuk, Kec. Manding, Kabupaten Sumenep, Jawa Timur 69452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisata religi mengenai sejarah Joko Tole  </t>
-  </si>
-  <si>
-    <t>Asta K Faqih</t>
-  </si>
-  <si>
-    <t>Jl. KH. Moenir gg 9, RT.02/RW.01, Daya Sungai, Lembung Bar., Kec. Lenteng, Kabupaten Sumenep, Jawa Timur 69461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisata religi makam seorang ulama asta k.faqih </t>
-  </si>
-  <si>
-    <t>Asta Katandur</t>
-  </si>
-  <si>
-    <t>2V3C+MP7, Asem Toronan, Pamolokan, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69412</t>
-  </si>
-  <si>
-    <t>wisata religi makam Syekh Achmad Baidawi atau pangeran katandur</t>
-  </si>
-  <si>
-    <t>mushola, parkir, toilet, alqur'an, café</t>
-  </si>
-  <si>
-    <t>Asta Panaongan</t>
-  </si>
-  <si>
-    <t>Benteng Utara, Panaongan, Kec. Pasongsongan, Kabupaten Sumenep, Jawa Timur 69457</t>
-  </si>
-  <si>
-    <t>wisata religi makam Kiai Sholeh atau Kiai Abu Syukari</t>
-  </si>
-  <si>
-    <t>Asta Sayyid Yusuf</t>
-  </si>
-  <si>
-    <t>Masjid, Talango, Kec. Talango, Kabupaten Sumenep, Jawa Timur 69481</t>
-  </si>
-  <si>
-    <t>Makam syekh yusuf</t>
-  </si>
-  <si>
-    <t>Makam Asta Tinggi</t>
-  </si>
-  <si>
-    <t>Jl. Asta Tinggi, Temor Lorong, Kebunagung, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69413</t>
-  </si>
-  <si>
-    <t>Asta Tinggi merupakan situs makam Raja-raja Sumenep dan keturunannya yang dibangun pada tahun 1763</t>
-  </si>
-  <si>
-    <t>Masjid Jamik Sumenep</t>
-  </si>
-  <si>
-    <t>Jl. Trunojoyo No.184, Dalem Anyar, Bangselok, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69416</t>
-  </si>
-  <si>
-    <t>wisata religi yang merupakan salah satu bangunan bersejarah</t>
-  </si>
-  <si>
-    <t>Museum Keraton</t>
-  </si>
-  <si>
-    <t>XJl. Dr. Sutomo No.6, Lingkungan Delama, Pajagalan, Kec. Kota Sumenep, Kabupaten Sumenep, Jawa Timur 69416</t>
-  </si>
-  <si>
-    <t>Museum Keraton Sumenep menyimpan berbagai benda bersejarah dan pusaka, termasuk dua kereta kencana, kursi pertemuan, tempat tidur raja, ukiran lambang perdamaian, dan peninggalan Sultan Abd Rachman seperti Al Quran dan kereta kuda</t>
-  </si>
-  <si>
-    <t>parkir, tempat ibadah, tempat makan, dan toko suvenir</t>
-  </si>
-  <si>
-    <t>Rumah Kasur Pasir</t>
-  </si>
-  <si>
-    <t>Jl. Air Tawar, Manggeran, Legung Bar., Kec. Batang Batang, Kabupaten Sumenep, Jawa Timur 69473</t>
-  </si>
-  <si>
-    <t>desa legung yang dikenal dengan tradisi tidur di atas pasir, di mana pasir menjadi alas tidur utama bagi warga</t>
-  </si>
-  <si>
-    <t>Musholla, Tempat makan, Balai pertemuan, Transportasi khusus ke wisata kampung pasir, toilet</t>
-  </si>
-  <si>
-    <t>Situs Batugong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desa Pancor, Pulau Sapudi, Sumenep </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisata sejarah mengenai batu gong </t>
-  </si>
-  <si>
-    <t>warung, mushola, parkir, toilet</t>
-  </si>
-  <si>
-    <t>Pantai Keris</t>
-  </si>
-  <si>
-    <t>XX35+QQ2, Gersik Putih, Gapura, Sumenep Regency, East Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisata pantai dengan keunikan karena diapit oleh dua laut yang berbeda
-</t>
-  </si>
-  <si>
-    <t>Desa Wisata Bancamara</t>
-  </si>
-  <si>
-    <t>Bancamara, Dungkek, Sumenep Regency, East Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desa wisata bancamara dengan wisata pendukung seperti goa mahakarya, batu cangga </t>
-  </si>
-  <si>
-    <t>warung, parkir, toilet</t>
-  </si>
-  <si>
-    <t>Pantai Sembilan Gili Genting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisata pantai di gili genting </t>
-  </si>
-  <si>
-    <t>parkir, toilet, musollah, kuliner</t>
-  </si>
-  <si>
-    <t>Pantai E Kaoghi</t>
-  </si>
-  <si>
-    <t>Nonggunong, Tanjung, Saronggi, Sumenep Regency, East Java 69467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pantai di desa tanjung, saronggi dengan pasir putih yang lembut dan air laut yang jernih </t>
-  </si>
-  <si>
-    <t>Bukit Tinggi Daramista</t>
-  </si>
-  <si>
-    <t>Billa Tompok, Daramesta, Kec. Lenteng, Kabupaten Sumenep, Jawa Timur 69461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wisata bukit tinggi dengan panorama alam sumenep </t>
-  </si>
-  <si>
-    <t>Parkir, Toilet, Kuliner, Tempat Ibadah</t>
-  </si>
-  <si>
-    <t>Wisata Wahana Air</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>openingHours</t>
-  </si>
-  <si>
-    <t>closingHours</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>facilities</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>visitor</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FAgro%20Edu%20Wisata%20Kebun%20Bang%20Jani.jpg?alt=media&amp;token=b972b187-6d8c-4e8f-a33d-f0ff239b6a26</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Rindu.jpg?alt=media&amp;token=88ebc627-ff89-4704-941e-df5c1dbb7f33</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FWisata%20Alam%20Kesek.jpg?alt=media&amp;token=8e9eed16-da1d-46bb-9c5e-32a6741b867b</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPandela%20(Pantai%20Desa%20Lajing).jpg?alt=media&amp;token=9ac9f265-98f3-41ee-a6dd-3df0355b753c</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Agung%20Arosbaya.jpg?alt=media&amp;token=8b6dc199-9eba-4e37-b3f5-ac8bc1c792fd</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Biru.jpg?alt=media&amp;token=8551c0f9-c5e1-4615-80fd-067dcb8d1c14</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FApi%20Alam%20Konang.png?alt=media&amp;token=20fda9cc-7065-42af-89d8-bf4daa29b442</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FAir%20Terjun%20Kokop.jpg?alt=media&amp;token=438ea54d-5edf-47b0-a1c9-8e61e4da0e83</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FBukit%20Pendabah.jpeg?alt=media&amp;token=2a191061-c502-42e1-b365-0aefdf02117a</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGunung%20Geger.jpg?alt=media&amp;token=44087d33-1461-437c-a97d-2f4a8609d644</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FHutan%20Mangrove%20Labuhan.jpg?alt=media&amp;token=bb7f6c31-f93d-4f2b-aa37-f8d8e41b43e9</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Gebang.jpg?alt=media&amp;token=09475c53-061b-46de-b396-894b2b5b0735</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKampung%20Batik%20Paseseh.jpg?alt=media&amp;token=fd6ae440-68cc-4e87-9fb1-0135673f21b2</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Siring%20Kemuning.png?alt=media&amp;token=65b89dd5-1822-46c5-b6e8-f2a68e605f9a</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Lobuk%20Bumi%20Anyar.png?alt=media&amp;token=ce8e6adf-5ba8-418c-8cfd-f03ba812b3c4</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKutai%20Sukbar.jpg?alt=media&amp;token=1c6cfbb5-77d2-4eb5-b2e3-dd4387b9963e</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Rekreasi%20Kota%20Bangkalan.jpg?alt=media&amp;token=e1c6a57f-e4ce-4e62-8e8c-cd9f51354d8f</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FStadion%20Kerapan%20sapi%20R.P%20Moh%20Noer.jpg?alt=media&amp;token=56b224c2-7736-4eff-ba58-4b33f1fec653</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKolla%20Langgundih.png?alt=media&amp;token=4716fdfb-8b4b-4305-9245-c823c03d39c0</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Aer%20Mata%20Ebu.jpg?alt=media&amp;token=aa06dfc9-a300-4ad0-ac4f-f394cd74852c</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Sultan%20Abdul%20Kadirun.jpg?alt=media&amp;token=b8aebc23-778f-4561-be56-6009023fe6d0</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Sunan%20Cendana.jpg?alt=media&amp;token=a6fc7849-6cde-4d4a-9397-e773f9ffcb31</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Syaikhona%20Kholil.jpeg?alt=media&amp;token=92209284-9a27-4097-ac65-2c74bf677002</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMuseum%20Bangkalan%20Cakraningrat.jpg?alt=media&amp;token=4f179d8d-0c28-4d27-9d44-7da5346c79a4</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMuseum%20Perusnia.jpeg?alt=media&amp;token=6c65c72e-80c0-4d6a-a52e-65fc625c679a</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPantai%20Tlangoh.jpg?alt=media&amp;token=8c31902d-cc17-440d-be92-1d317b975e08</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPerahu%20Sarimuna.jpeg?alt=media&amp;token=a3cc69be-9752-44e1-b720-51f705ab2a1f</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FJembatan%20Harapan%20Bancaran.png?alt=media&amp;token=8a894c42-df5c-4ccd-97f3-06242a0b6f2f</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGoa%20Petapa%20Beach.jpg?alt=media&amp;token=2cf30899-b97b-47a2-8002-437120a39958</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FKrahiga.png?alt=media&amp;token=bcbd514a-2212-4031-ac4f-18b4a98ba9b4</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FAir%20Terjun%20Toroan.jpg?alt=media&amp;token=b5a1f424-8e02-4f60-80fe-4703b12fea0b</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGoa%20Lebar.jpg?alt=media&amp;token=1edbfbb4-68d6-418f-b31a-dcdfa84371f4</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FHutan%20Kera%20Nepa.jpg?alt=media&amp;token=21932d97-95fc-4df4-9c63-2bebf8c7db2c</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkarang%20laut%20mandangin(2).JPG?alt=media&amp;token=f47b61de-d417-4bd6-b14f-199f790e3fd0</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20camplong.JPG?alt=media&amp;token=be4054d1-e9c0-4f1e-9b22-2650dc356f65</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20lon%20malang.JPG?alt=media&amp;token=1b2e09ba-c26e-4df6-aac2-94dc31b53463</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwaduk%20klampis.JPG?alt=media&amp;token=6f0e1939-dce1-41a4-b544-2e5314411eb9</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fsumur%20tujuh%20panji%20laras.JPG?alt=media&amp;token=496870ad-33b1-4af9-b49b-2bb84376bd09</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fsitus%20ratu%20ibu.JPG?alt=media&amp;token=cffa1939-a546-4709-8ae8-411ded562157</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fsitus%20trunojoyo.JPG?alt=media&amp;token=b589db6b-ed39-47a7-a053-90e5279a7920</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FDesa%20Budaya%20Kerapan%20Sapi%20Ketapang%20Barat.JPG?alt=media&amp;token=6e730f20-214f-4aa7-a5fc-9b2aa5f367a1</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fdesa%20wisata%20petualangan%20panjat%20tebing%20margua.PNG?alt=media&amp;token=c9353ffd-cc07-4554-8f3e-8bf46f73d727</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmangrove%20sreseh.JPG?alt=media&amp;token=896e1328-2ca2-4a73-8dff-5dc13d59bd52</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampung%20tani%20panjalin.JPG?alt=media&amp;token=c7c16dfc-a3a9-470f-8e6a-203df1e273cd</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampong%20milon%20napote.JPG?alt=media&amp;token=b73c404b-88d7-4742-b942-6b66846c99e9</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FWMS%20Berung%20Ngambeng%20Spot%20Klobur.JPG?alt=media&amp;token=7f510ef7-5f73-4e83-9dbd-7ae88a647d2a</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Wiyata%20Bahari%20Sampang.PNG?alt=media&amp;token=1dc70398-734e-4468-b371-b394a56c0019</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FPerpustakaan%20Dan%20Arsip%20Kota%20Sampang.jpg?alt=media&amp;token=4736cb8a-a801-4ff2-b347-bd1f6201c5a9</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20damar%20wulan.JPG?alt=media&amp;token=05f88ea5-0ad1-400c-977c-bbfa1ddd02dd</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Impian%20Desa%20Rabian.PNG?alt=media&amp;token=56f4d544-370e-4769-9ba6-75e6d613b61f</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwater%20park%20sumekar.jpeg?alt=media&amp;token=3a4aa8da-d83d-44a3-9d61-37285881cfea</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fapi%20tak%20kunjung%20padam.JPG?alt=media&amp;token=ba0f0359-ecd7-40fa-8ae3-00ba9183b137</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmangrove%20lembung.JPG?alt=media&amp;token=3cda0349-c8c3-4d3e-8956-681f238fe2f3</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20jumiang.JPG?alt=media&amp;token=4656031a-131b-4130-9be5-34d3d02d8bf1</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20talang%20siring.JPG?alt=media&amp;token=bb49bd12-012d-4640-95cb-462c6f02890d</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20the%20legend%20pamekasan.jpg?alt=media&amp;token=2f87ab11-3c6e-41d6-9adb-d76da82143af</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fbukit%20kehi.JPG?alt=media&amp;token=d229ccc1-86f9-4028-87e9-c1ce64c4c065</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Feduwisata%20garam.JPG?alt=media&amp;token=10ce58a8-9569-4846-9aac-002b8409cbca</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampung%20durian%20pmksn.JPG?alt=media&amp;token=15680e51-6745-4178-8bc6-138471c39f40</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fkampung%20toron%20semalem.JPG?alt=media&amp;token=468ce9d9-0e1c-4bc7-9d09-0dd183a97b2a</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpuncak%20ratu.JPG?alt=media&amp;token=56725887-c317-4b69-8343-7c306aaabba9</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20sawah.JPG?alt=media&amp;token=e697e7df-6eec-46e2-8ee0-7b5695d05bed</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpesarean%20batu%20ampar.JPG?alt=media&amp;token=42b3129a-839a-4639-bf03-c528fd809fd9</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FMakam%20Ronggo%20Sukowati.JPG?alt=media&amp;token=d847b43c-33bc-46b2-bf74-79ce9ff73902</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmuseum%20mandhilaras.JPG?alt=media&amp;token=281e8794-8b97-4c15-8e37-467a6f3baa4d</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftaman%20edukasi%20_titik%20sejuta%20warna_.JPG?alt=media&amp;token=31c2c79b-ce77-49f3-a9ec-184247e41735</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FWisata%20Terpadu%20Bhurunan%20Murtajih.JPG?alt=media&amp;token=3b0e9c29-9292-428b-b638-293a6c733bc9</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FGili-Iyang.webp?alt=media&amp;token=287b1cb1-d0ae-4872-a197-bf3b96e9f35c</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgili%20labak.jpeg?alt=media&amp;token=4df78c58-519d-4ffb-a32f-5c7005dec905</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgoa-jeruk-.webp?alt=media&amp;token=0646b252-a472-4c2b-a439-45bdc67df6c2</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgua%20payudan.jpeg?alt=media&amp;token=828c9689-a4bb-4cc8-9f90-0c7f605b119b</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fgoa%20soekarno.jpeg?alt=media&amp;token=ee32944d-a4cd-4400-ac57-36c4cc15f647</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmangrove%20kedatim.jpeg?alt=media&amp;token=730bdca0-6402-4c77-9099-509936d1b6fa</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20badur.jpeg?alt=media&amp;token=3afd679d-44e4-49be-ab32-251608288160</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20lombang.jpeg?alt=media&amp;token=e0f67109-bfa4-4ada-a91d-d1141155e5da</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20sembilan.jpeg?alt=media&amp;token=8ccea1de-e171-44fc-8750-468f0ff28c44</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20slopeng.jpeg?alt=media&amp;token=712b47c1-5b59-48e5-8986-0abe02d6d72e</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20batu%20putih.jpeg?alt=media&amp;token=2a515026-5927-48a7-b64f-a3605b7655a3</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20bukit%20kalompek.jpeg?alt=media&amp;token=73a10a25-cc01-4e7f-a028-5e3922484948</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftelaga%20kirmata.jpeg?alt=media&amp;token=b8ca07e6-0619-4354-b7b6-1232af7fa424</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmutiara%20tirta.jpeg?alt=media&amp;token=6ef3e2bb-2c77-44fc-8b4b-2579d027752f</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftaman%20tectona.jpeg?alt=media&amp;token=57546c84-5b22-4247-9034-64793f174f58</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftirta%20sumekar%20indah.jpeg?alt=media&amp;token=8c3e59e1-4d2d-4893-bec5-630960a7a4d1</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fwisata%20bukit%20tinggi%20daramista.jpeg?alt=media&amp;token=ae6054e5-6c1a-4264-9a3e-6b769d8299e6</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Ftaman%20kota%20adipura.jpeg?alt=media&amp;token=4eade221-54e7-4286-b644-7ee431b18361</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20gumuk%20kertasada.jpeg?alt=media&amp;token=3e66f717-b07a-430f-9376-0696fae65a2a</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20joko%20tole.jpeg?alt=media&amp;token=f66fe5b2-2f82-4e3d-8b97-97fd7286b449</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20k%20faqih.jpeg?alt=media&amp;token=832e77e1-d0a1-4ab8-923f-f524e7651e6a</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20katandur.jpeg?alt=media&amp;token=c2b5be88-e817-4bce-88cf-64c14cbb3811</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20panaongan.jpeg?alt=media&amp;token=e72135b1-36d8-4da1-94e2-36406ec4f112</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fasta%20sayyid%20yusuf.jpeg?alt=media&amp;token=2e181e1a-b9f3-4bde-a713-24615e6f070f</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmakam%20asta%20tinggi.jpeg?alt=media&amp;token=fb464c44-c813-4156-8bef-69cfe7f4e176</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmasjid%20jami%20sumenep.jpeg?alt=media&amp;token=530940e8-d7d9-422c-99c3-69e1d687dc8e</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fmuseum%20keraton.jpeg?alt=media&amp;token=6886f735-71d5-4c0e-b639-be7718b118f7</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Frumah%20kasur%20pasir.jpeg?alt=media&amp;token=e10e0ac2-8bd6-4e8f-b70e-dec0de7ae4c1</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FSitus%20Batugong.jpg?alt=media&amp;token=f5952726-05af-44a3-b30f-9e051f83d8fc</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20keris.jpeg?alt=media&amp;token=0f915461-f9dc-40cb-8947-266318da7091</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20sembilan%20gili%20genting.jpeg?alt=media&amp;token=008da410-c2c6-46e3-83ce-c83d718b6cf3</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2Fpantai%20e%20kaoghi.jpeg?alt=media&amp;token=3a722f97-b497-4e0e-8b41-b50907e3f87b</t>
-  </si>
-  <si>
-    <t>imageURL</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/newsmusic-b1986.appspot.com/o/kanto%2FTaman%20Bukit%20Anjhir.jpg?alt=media&amp;token=eaffa015-3564-4348-ab1d-9843eb5644c0</t>
+    <t xml:space="preserve"> Pantai Jumiang, kini menjadi destinasi wisata favorit bagi masyarakat Pamekasan. Anda bisa menyaksikan panorama laut dari atas bukit melihat warna lautnya yang biru. Pantai Jumiang di Pamekasan ini bebas dari ombak besar dan pemandangannya juga indah. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sawah di Pamekasan tidak hanya menawarkan keindahan alam, tetapi juga pengalaman budaya yang mendalam, menjadikannya destinasi menarik bagi wisatawan yang ingin merasakan kehidupan pedesaan Madura.  sawah di Pamekasan, Madura, juga dikenal dengan keindahan alamnya yang menawan dan suasana yang tenang. Destinasi ini menjadi pilihan bagi mereka yang ingin melarikan diri dari hiruk-pikuk kota dan menikmati ketenangan pedesaan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terpadu Bhurunan Murtajih (WTBM) adalah destinasi wisata yang terletak di Pamekasan, Madura, yang menawarkan pengalaman wisata yang beragam dan menarik. Dikenal sebagai tempat rekreasi keluarga, WTBM menggabungkan keindahan alam dengan berbagai fasilitas modern, menjadikannya pilihan ideal untuk menghabiskan waktu bersama keluarga dan teman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> yang menawarkan keindahan hutan bakau dan suasana yang sejuk dan nyaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kebun</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kuliner</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1570,7 @@
     <numFmt numFmtId="164" formatCode="h&quot;:&quot;mm"/>
     <numFmt numFmtId="165" formatCode="[$Rp]#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,6 +1603,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1706,7 +1713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1772,6 +1779,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1990,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="43" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2014,46 +2027,46 @@
   <sheetData>
     <row r="1" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>402</v>
+        <v>372</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>373</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>508</v>
+        <v>476</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -2067,13 +2080,13 @@
     </row>
     <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="15">
         <v>0.33333333333333331</v>
@@ -2082,10 +2095,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>3</v>
+        <v>499</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>4</v>
+        <v>508</v>
       </c>
       <c r="H2" s="14">
         <v>2342</v>
@@ -2094,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2" s="14">
         <v>-7.0562531760783296</v>
@@ -2106,7 +2119,7 @@
         <v>112.777121217306</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2120,25 +2133,25 @@
     </row>
     <row r="3" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H3" s="6">
         <v>400</v>
@@ -2147,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L3" s="6">
         <v>-7.1593806927427703</v>
@@ -2159,7 +2172,7 @@
         <v>112.776644379763</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2173,13 +2186,13 @@
     </row>
     <row r="4" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>489</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
         <v>0.375</v>
@@ -2188,10 +2201,10 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>509</v>
       </c>
       <c r="H4" s="6">
         <v>5673</v>
@@ -2200,10 +2213,10 @@
         <v>15000</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L4" s="6">
         <v>-7.16032882308778</v>
@@ -2212,7 +2225,7 @@
         <v>112.77219060489099</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>411</v>
+        <v>486</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2226,13 +2239,13 @@
     </row>
     <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
@@ -2241,10 +2254,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H5" s="6">
         <v>8673</v>
@@ -2253,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L5" s="6">
         <v>-6.97275487235685</v>
@@ -2265,7 +2278,7 @@
         <v>112.79423657976299</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -2279,13 +2292,13 @@
     </row>
     <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
         <v>0</v>
@@ -2294,10 +2307,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H6" s="6">
         <v>73159</v>
@@ -2306,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L6" s="6">
         <v>-6.9557206983162896</v>
@@ -2318,7 +2331,7 @@
         <v>112.84774550030301</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -2332,25 +2345,25 @@
     </row>
     <row r="7" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H7" s="6">
         <v>13651</v>
@@ -2359,10 +2372,10 @@
         <v>10000</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L7" s="6">
         <v>-6.8848477296647799</v>
@@ -2371,7 +2384,7 @@
         <v>113.079132550927</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -2385,25 +2398,25 @@
     </row>
     <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H8" s="6">
         <v>469</v>
@@ -2412,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L8" s="6">
         <v>-7.0422093470048202</v>
@@ -2424,7 +2437,7 @@
         <v>113.073687635062</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -2438,13 +2451,13 @@
     </row>
     <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7">
         <v>0.29166666666666669</v>
@@ -2453,10 +2466,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H9" s="6">
         <v>677</v>
@@ -2465,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L9" s="6">
         <v>-7.0200444155317099</v>
@@ -2477,7 +2490,7 @@
         <v>113.121777195108</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -2491,25 +2504,25 @@
     </row>
     <row r="10" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H10" s="6">
         <v>1956</v>
@@ -2518,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L10" s="6">
         <v>-7.1104119914174104</v>
@@ -2530,7 +2543,7 @@
         <v>112.744883418382</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -2544,25 +2557,25 @@
     </row>
     <row r="11" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H11" s="6">
         <v>547</v>
@@ -2571,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L11" s="6">
         <v>-7.0262905809305298</v>
@@ -2583,7 +2596,7 @@
         <v>112.932690819564</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -2597,13 +2610,13 @@
     </row>
     <row r="12" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7">
         <v>0.29166666666666669</v>
@@ -2612,10 +2625,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H12" s="6">
         <v>14980</v>
@@ -2624,10 +2637,10 @@
         <v>10000</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L12" s="6">
         <v>-6.8841857011571301</v>
@@ -2636,7 +2649,7 @@
         <v>112.99368480591799</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2650,13 +2663,13 @@
     </row>
     <row r="13" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
@@ -2665,10 +2678,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H13" s="6">
         <v>1357</v>
@@ -2677,10 +2690,10 @@
         <v>10000</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L13" s="6">
         <v>-6.9852237321306498</v>
@@ -2689,7 +2702,7 @@
         <v>112.78677076441799</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2703,13 +2716,13 @@
     </row>
     <row r="14" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
         <v>0.29166666666666669</v>
@@ -2718,10 +2731,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H14" s="6">
         <v>1372</v>
@@ -2730,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L14" s="6">
         <v>-6.8895568455788601</v>
@@ -2742,7 +2755,7 @@
         <v>113.085181550927</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2756,25 +2769,25 @@
     </row>
     <row r="15" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H15" s="6">
         <v>347</v>
@@ -2783,10 +2796,10 @@
         <v>10000</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L15" s="6">
         <v>-6.8831003144336202</v>
@@ -2795,7 +2808,7 @@
         <v>113.05564733062999</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -2809,25 +2822,25 @@
     </row>
     <row r="16" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H16" s="6">
         <v>3244</v>
@@ -2836,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L16" s="6">
         <v>-6.8931457743543003</v>
@@ -2848,7 +2861,7 @@
         <v>113.124476949129</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -2862,13 +2875,13 @@
     </row>
     <row r="17" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7">
         <v>0.29166666666666669</v>
@@ -2877,10 +2890,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>16</v>
+        <v>509</v>
       </c>
       <c r="H17" s="6">
         <v>7794</v>
@@ -2889,10 +2902,10 @@
         <v>5000</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L17" s="6">
         <v>-7.1587073075734597</v>
@@ -2901,7 +2914,7 @@
         <v>112.79461308532601</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2915,13 +2928,13 @@
     </row>
     <row r="18" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
@@ -2930,10 +2943,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H18" s="6">
         <v>11106</v>
@@ -2942,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L18" s="6">
         <v>-7.1221859769528102</v>
@@ -2954,7 +2967,7 @@
         <v>112.813400050927</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>509</v>
+        <v>477</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2968,13 +2981,13 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D19" s="7">
         <v>0.29166666666666669</v>
@@ -2983,10 +2996,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="H19" s="6">
         <v>16214</v>
@@ -2995,10 +3008,10 @@
         <v>5000</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L19" s="6">
         <v>-7.0428586449504298</v>
@@ -3007,7 +3020,7 @@
         <v>112.740382704891</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -3021,13 +3034,13 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D20" s="7">
         <v>0.33333333333333331</v>
@@ -3036,10 +3049,10 @@
         <v>0.5</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H20" s="6">
         <v>8805</v>
@@ -3048,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L20" s="6">
         <v>-7.0231358734565399</v>
@@ -3060,7 +3073,7 @@
         <v>112.761744479763</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3074,13 +3087,13 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D21" s="7">
         <v>0</v>
@@ -3089,10 +3102,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H21" s="6">
         <v>583</v>
@@ -3101,10 +3114,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L21" s="6">
         <v>-7.0400722493264398</v>
@@ -3113,7 +3126,7 @@
         <v>112.708753393254</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3127,13 +3140,13 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
@@ -3142,10 +3155,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H22" s="6">
         <v>179404</v>
@@ -3154,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L22" s="6">
         <v>-6.9485208776454499</v>
@@ -3166,7 +3179,7 @@
         <v>112.856369483858</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>428</v>
+        <v>397</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3180,13 +3193,13 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
@@ -3195,10 +3208,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H23" s="6">
         <v>1264</v>
@@ -3207,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L23" s="6">
         <v>-7.0279255124262301</v>
@@ -3219,7 +3232,7 @@
         <v>112.746339563907</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3233,13 +3246,13 @@
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
@@ -3248,10 +3261,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H24" s="6">
         <v>1998</v>
@@ -3260,10 +3273,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L24" s="6">
         <v>-7.15787248715153</v>
@@ -3272,7 +3285,7 @@
         <v>112.854163249072</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3286,13 +3299,13 @@
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
@@ -3301,10 +3314,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H25" s="6">
         <v>5022110</v>
@@ -3313,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L25" s="6">
         <v>-7.0410514919170302</v>
@@ -3325,7 +3338,7 @@
         <v>112.723478968126</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>431</v>
+        <v>400</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -3339,13 +3352,13 @@
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D26" s="7">
         <v>0.33333333333333331</v>
@@ -3354,10 +3367,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H26" s="6">
         <v>4574</v>
@@ -3366,10 +3379,10 @@
         <v>3000</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L26" s="6">
         <v>-7.0476693356659199</v>
@@ -3378,7 +3391,7 @@
         <v>112.735317818382</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -3392,13 +3405,13 @@
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D27" s="7">
         <v>0.33333333333333331</v>
@@ -3407,10 +3420,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H27" s="6">
         <v>80</v>
@@ -3419,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L27" s="6">
         <v>-7.0332183081351696</v>
@@ -3431,7 +3444,7 @@
         <v>112.742761389035</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>433</v>
+        <v>402</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -3445,13 +3458,13 @@
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
@@ -3460,10 +3473,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H28" s="6">
         <v>9500</v>
@@ -3472,10 +3485,10 @@
         <v>5000</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L28" s="6">
         <v>-6.8823135728683003</v>
@@ -3484,7 +3497,7 @@
         <v>113.047831479763</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -3498,25 +3511,25 @@
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H29" s="6">
         <v>446</v>
@@ -3525,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L29" s="6">
         <v>-6.8874765969752501</v>
@@ -3537,7 +3550,7 @@
         <v>113.082814502567</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>435</v>
+        <v>404</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -3551,25 +3564,25 @@
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H30" s="6">
         <v>587</v>
@@ -3578,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L30" s="6">
         <v>-7.0129388689591803</v>
@@ -3590,7 +3603,7 @@
         <v>112.76106740438</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -3604,13 +3617,13 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D31" s="7">
         <v>0.33333333333333331</v>
@@ -3619,10 +3632,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H31" s="6">
         <v>1803</v>
@@ -3631,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L31" s="6">
         <v>-7.1552278232812503</v>
@@ -3643,7 +3656,7 @@
         <v>112.802748917024</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3657,13 +3670,13 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D32" s="7">
         <v>0</v>
@@ -3672,10 +3685,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H32" s="6">
         <v>663</v>
@@ -3684,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L32" s="6">
         <v>-7.0435006144455201</v>
@@ -3696,7 +3709,7 @@
         <v>112.70813719316401</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3710,13 +3723,13 @@
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D33" s="7">
         <v>0.25</v>
@@ -3725,10 +3738,10 @@
         <v>0.75</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H33" s="6">
         <v>20559</v>
@@ -3737,10 +3750,10 @@
         <v>5000</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L33" s="6">
         <v>-6.8923677864814401</v>
@@ -3749,7 +3762,7 @@
         <v>113.312382208599</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>439</v>
+        <v>408</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3763,13 +3776,13 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D34" s="7">
         <v>0</v>
@@ -3778,10 +3791,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H34" s="6">
         <v>6411</v>
@@ -3790,10 +3803,10 @@
         <v>5000</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L34" s="6">
         <v>-7.1945282838153899</v>
@@ -3802,7 +3815,7 @@
         <v>113.255516320236</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3816,13 +3829,13 @@
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D35" s="7">
         <v>0.25</v>
@@ -3831,10 +3844,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H35" s="6">
         <v>11309</v>
@@ -3843,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L35" s="6">
         <v>-6.8974157393115201</v>
@@ -3855,7 +3868,7 @@
         <v>113.20085487925201</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -3869,25 +3882,25 @@
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>143</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H36" s="6">
         <v>1072</v>
@@ -3896,10 +3909,10 @@
         <v>10000</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L36" s="6">
         <v>-7.3076045456303298</v>
@@ -3908,7 +3921,7 @@
         <v>113.211343279761</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3922,13 +3935,13 @@
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D37" s="7">
         <v>0</v>
@@ -3937,10 +3950,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H37" s="6">
         <v>27441</v>
@@ -3949,10 +3962,10 @@
         <v>10000</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L37" s="6">
         <v>-7.2180957699475101</v>
@@ -3961,7 +3974,7 @@
         <v>113.31936688279001</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -3975,13 +3988,13 @@
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D38" s="7">
         <v>0.3125</v>
@@ -3990,10 +4003,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H38" s="6">
         <v>129883</v>
@@ -4002,10 +4015,10 @@
         <v>10000</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L38" s="6">
         <v>-6.8887427342836398</v>
@@ -4014,7 +4027,7 @@
         <v>113.395441733052</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -4028,13 +4041,13 @@
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D39" s="7">
         <v>0.375</v>
@@ -4043,10 +4056,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H39" s="6">
         <v>1999</v>
@@ -4055,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L39" s="6">
         <v>-7.1069186227886503</v>
@@ -4067,7 +4080,7 @@
         <v>113.226025777722</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -4081,25 +4094,25 @@
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H40" s="6">
         <v>7065</v>
@@ -4108,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L40" s="6">
         <v>-7.2090514543004396</v>
@@ -4120,7 +4133,7 @@
         <v>113.234600722748</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -4134,13 +4147,13 @@
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D41" s="7">
         <v>0</v>
@@ -4149,10 +4162,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H41" s="6">
         <v>5965</v>
@@ -4161,10 +4174,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L41" s="6">
         <v>-7.2082701422971098</v>
@@ -4173,7 +4186,7 @@
         <v>113.23283781532901</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -4187,25 +4200,25 @@
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H42" s="6">
         <v>1103</v>
@@ -4214,10 +4227,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L42" s="6">
         <v>-7.1930537401677501</v>
@@ -4226,7 +4239,7 @@
         <v>113.25517002687801</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -4240,25 +4253,25 @@
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H43" s="6">
         <v>10297</v>
@@ -4267,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L43" s="6">
         <v>-6.8859530486375498</v>
@@ -4279,7 +4292,7 @@
         <v>113.32147044202701</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -4293,13 +4306,13 @@
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>172</v>
+        <v>490</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D44" s="7">
         <v>0.33333333333333331</v>
@@ -4308,10 +4321,10 @@
         <v>0.6875</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>174</v>
+        <v>501</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H44" s="6">
         <v>589</v>
@@ -4320,10 +4333,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L44" s="6">
         <v>-6.9126175541528303</v>
@@ -4332,7 +4345,7 @@
         <v>113.476391501834</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -4346,13 +4359,13 @@
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>175</v>
+        <v>491</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D45" s="7">
         <v>0.33333333333333331</v>
@@ -4361,10 +4374,10 @@
         <v>0.875</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>177</v>
+        <v>502</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H45" s="6">
         <v>1204</v>
@@ -4373,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L45" s="6">
         <v>-7.1916661336380301</v>
@@ -4385,7 +4398,7 @@
         <v>113.088863874995</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -4399,13 +4412,13 @@
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D46" s="7">
         <v>0.33333333333333331</v>
@@ -4414,10 +4427,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>181</v>
+        <v>483</v>
       </c>
       <c r="H46" s="6">
         <v>877</v>
@@ -4426,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L46" s="6">
         <v>-6.8966708003211199</v>
@@ -4438,7 +4451,7 @@
         <v>113.43771316158499</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -4452,13 +4465,13 @@
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D47" s="7">
         <v>0</v>
@@ -4467,10 +4480,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>181</v>
+        <v>483</v>
       </c>
       <c r="H47" s="6">
         <v>11182</v>
@@ -4479,10 +4492,10 @@
         <v>0</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="L47" s="6">
         <v>-6.9120880608692197</v>
@@ -4491,7 +4504,7 @@
         <v>113.39581961494</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -4505,13 +4518,13 @@
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D48" s="7">
         <v>0.33333333333333331</v>
@@ -4519,11 +4532,11 @@
       <c r="E48" s="7">
         <v>0</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>189</v>
+      <c r="F48" s="26" t="s">
+        <v>503</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H48" s="6">
         <v>3975</v>
@@ -4532,10 +4545,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L48" s="6">
         <v>-7.1916775824052701</v>
@@ -4544,7 +4557,7 @@
         <v>113.08835591718</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -4558,13 +4571,13 @@
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D49" s="7">
         <v>0.29166666666666669</v>
@@ -4573,10 +4586,10 @@
         <v>0.6875</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="H49" s="6">
         <v>10453</v>
@@ -4585,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L49" s="6">
         <v>-7.1907955594338997</v>
@@ -4597,7 +4610,7 @@
         <v>113.25409771162499</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -4611,13 +4624,13 @@
     </row>
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D50" s="7">
         <v>0.33333333333333331</v>
@@ -4626,10 +4639,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>181</v>
+        <v>483</v>
       </c>
       <c r="H50" s="6">
         <v>38784</v>
@@ -4638,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L50" s="6">
         <v>-7.1960907913387802</v>
@@ -4650,7 +4663,7 @@
         <v>113.25231035171301</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -4664,13 +4677,13 @@
     </row>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D51" s="7">
         <v>0</v>
@@ -4679,10 +4692,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H51" s="6">
         <v>642</v>
@@ -4691,10 +4704,10 @@
         <v>0</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L51" s="6">
         <v>-7.2198290456833796</v>
@@ -4703,7 +4716,7 @@
         <v>113.22260685950801</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -4717,25 +4730,25 @@
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="H52" s="6">
         <v>6903</v>
@@ -4744,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L52" s="6">
         <v>-6.8919108951761396</v>
@@ -4756,7 +4769,7 @@
         <v>113.261527707388</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -4770,13 +4783,13 @@
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="D53" s="7">
         <v>0.3125</v>
@@ -4785,10 +4798,10 @@
         <v>0.6875</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="H53" s="6">
         <v>8542</v>
@@ -4797,10 +4810,10 @@
         <v>25000</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L53" s="6">
         <v>-7.1938813677752904</v>
@@ -4809,7 +4822,7 @@
         <v>113.25779884615901</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -4823,13 +4836,13 @@
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D54" s="7">
         <v>0</v>
@@ -4838,10 +4851,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H54" s="6">
         <v>5900</v>
@@ -4850,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L54" s="6">
         <v>-7.2048084605951397</v>
@@ -4862,7 +4875,7 @@
         <v>113.461667820776</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4876,13 +4889,13 @@
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D55" s="7">
         <v>0.22916666666666666</v>
@@ -4891,10 +4904,10 @@
         <v>0.75</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H55" s="6">
         <v>4929</v>
@@ -4903,10 +4916,10 @@
         <v>5000</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L55" s="6">
         <v>-7.1648457439274704</v>
@@ -4915,7 +4928,7 @@
         <v>113.575732834647</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -4929,13 +4942,13 @@
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D56" s="7">
         <v>0.20833333333333334</v>
@@ -4944,10 +4957,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>218</v>
+        <v>504</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H56" s="6">
         <v>16710</v>
@@ -4956,10 +4969,10 @@
         <v>2000</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L56" s="6">
         <v>-7.2331874095648798</v>
@@ -4968,7 +4981,7 @@
         <v>113.549338690422</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -4982,13 +4995,13 @@
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D57" s="7">
         <v>0.29166666666666669</v>
@@ -4997,10 +5010,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H57" s="6">
         <v>21622</v>
@@ -5009,10 +5022,10 @@
         <v>2000</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L57" s="6">
         <v>-7.1372637816611704</v>
@@ -5021,7 +5034,7 @@
         <v>113.59076589339401</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -5035,13 +5048,13 @@
     </row>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D58" s="7">
         <v>0.29166666666666669</v>
@@ -5050,10 +5063,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>11</v>
+        <v>478</v>
       </c>
       <c r="H58" s="6">
         <v>51083</v>
@@ -5062,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L58" s="6">
         <v>-7.25049906568014</v>
@@ -5074,7 +5087,7 @@
         <v>113.517067326709</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -5088,13 +5101,13 @@
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D59" s="7">
         <v>0.25</v>
@@ -5103,10 +5116,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H59" s="6">
         <v>9526</v>
@@ -5115,10 +5128,10 @@
         <v>5000</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L59" s="6">
         <v>-7.0764782339138197</v>
@@ -5127,7 +5140,7 @@
         <v>113.610326834647</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -5141,13 +5154,13 @@
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="D60" s="7">
         <v>0</v>
@@ -5156,10 +5169,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>181</v>
+        <v>483</v>
       </c>
       <c r="H60" s="6">
         <v>3000</v>
@@ -5168,10 +5181,10 @@
         <v>3000</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L60" s="6">
         <v>-7.1794255086479</v>
@@ -5180,7 +5193,7 @@
         <v>113.536004573079</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -5194,13 +5207,13 @@
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D61" s="7">
         <v>0.29166666666666669</v>
@@ -5209,10 +5222,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H61" s="6">
         <v>20318</v>
@@ -5221,10 +5234,10 @@
         <v>5000</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L61" s="6">
         <v>-7.0226766047011804</v>
@@ -5233,7 +5246,7 @@
         <v>113.504072387571</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -5247,13 +5260,13 @@
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D62" s="7">
         <v>0.33333333333333331</v>
@@ -5262,10 +5275,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H62" s="6">
         <v>4648</v>
@@ -5274,10 +5287,10 @@
         <v>10000</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L62" s="6">
         <v>-7.1104318419558101</v>
@@ -5286,7 +5299,7 @@
         <v>113.505373919303</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -5300,13 +5313,13 @@
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D63" s="7">
         <v>0</v>
@@ -5315,10 +5328,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H63" s="6">
         <v>23839</v>
@@ -5327,10 +5340,10 @@
         <v>10000</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L63" s="6">
         <v>-7.0266986077407596</v>
@@ -5339,7 +5352,7 @@
         <v>113.492764615068</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -5353,13 +5366,13 @@
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>247</v>
+        <v>492</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D64" s="7">
         <v>0.29166666666666669</v>
@@ -5368,10 +5381,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>249</v>
+        <v>505</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H64" s="6">
         <v>2416</v>
@@ -5380,10 +5393,10 @@
         <v>5000</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L64" s="6">
         <v>-7.0497456251916102</v>
@@ -5392,7 +5405,7 @@
         <v>113.57837857539801</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -5406,13 +5419,13 @@
     </row>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="D65" s="7">
         <v>0.33333333333333331</v>
@@ -5421,10 +5434,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H65" s="6">
         <v>128374</v>
@@ -5433,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L65" s="6">
         <v>-7.0979316704125504</v>
@@ -5445,7 +5458,7 @@
         <v>113.376994115328</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -5459,25 +5472,25 @@
     </row>
     <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H66" s="6">
         <v>1147</v>
@@ -5486,10 +5499,10 @@
         <v>0</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L66" s="6">
         <v>-7.1509583079350101</v>
@@ -5498,7 +5511,7 @@
         <v>113.484780119031</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -5512,13 +5525,13 @@
     </row>
     <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="D67" s="7">
         <v>0.3125</v>
@@ -5527,10 +5540,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H67" s="6">
         <v>213</v>
@@ -5539,10 +5552,10 @@
         <v>0</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L67" s="6">
         <v>-7.1597695479385397</v>
@@ -5551,7 +5564,7 @@
         <v>113.48497353041201</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -5565,13 +5578,13 @@
     </row>
     <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="D68" s="7">
         <v>0.29166666666666669</v>
@@ -5580,10 +5593,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>181</v>
+        <v>483</v>
       </c>
       <c r="H68" s="6">
         <v>24287</v>
@@ -5592,10 +5605,10 @@
         <v>5000</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L68" s="6">
         <v>-7.2062618978593402</v>
@@ -5604,7 +5617,7 @@
         <v>113.517765421961</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -5618,13 +5631,13 @@
     </row>
     <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>263</v>
+        <v>493</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="D69" s="7">
         <v>0.33333333333333331</v>
@@ -5633,10 +5646,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>265</v>
+        <v>506</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H69" s="6">
         <v>1997</v>
@@ -5645,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L69" s="6">
         <v>-7.1671868749746102</v>
@@ -5657,7 +5670,7 @@
         <v>113.507964784381</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -5671,25 +5684,25 @@
     </row>
     <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H70" s="6">
         <v>2131</v>
@@ -5698,10 +5711,10 @@
         <v>10000</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L70" s="6">
         <v>-6.9831184000000004</v>
@@ -5710,7 +5723,7 @@
         <v>114.1722603</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -5724,13 +5737,13 @@
     </row>
     <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="D71" s="7">
         <v>0</v>
@@ -5739,10 +5752,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H71" s="6">
         <v>75775</v>
@@ -5751,10 +5764,10 @@
         <v>25000</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="L71" s="6">
         <v>-7.2014285999999998</v>
@@ -5763,7 +5776,7 @@
         <v>114.04570440000001</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -5777,13 +5790,13 @@
     </row>
     <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="D72" s="7">
         <v>0.33333333333333331</v>
@@ -5792,10 +5805,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H72" s="6">
         <v>793</v>
@@ -5804,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L72" s="6">
         <v>-6.9957940000000001</v>
@@ -5816,7 +5829,7 @@
         <v>113.84937309999999</v>
       </c>
       <c r="N72" s="12" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -5830,25 +5843,25 @@
     </row>
     <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H73" s="6">
         <v>743.21</v>
@@ -5857,10 +5870,10 @@
         <v>5000</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L73" s="6">
         <v>-7.0191901999999997</v>
@@ -5869,7 +5882,7 @@
         <v>113.6185469</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -5883,13 +5896,13 @@
     </row>
     <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D74" s="7">
         <v>0.33333333333333331</v>
@@ -5898,10 +5911,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H74" s="6">
         <v>99281</v>
@@ -5910,10 +5923,10 @@
         <v>15000</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L74" s="6">
         <v>-6.8982077000000004</v>
@@ -5922,7 +5935,7 @@
         <v>113.6567794</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -5936,13 +5949,13 @@
     </row>
     <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D75" s="7">
         <v>0.29166666666666669</v>
@@ -5951,10 +5964,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>289</v>
+        <v>507</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H75" s="6">
         <v>1407</v>
@@ -5963,10 +5976,10 @@
         <v>10000</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L75" s="6">
         <v>-7.0934799999999996</v>
@@ -5975,7 +5988,7 @@
         <v>113.86192320000001</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -5989,13 +6002,13 @@
     </row>
     <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D76" s="7">
         <v>0</v>
@@ -6004,10 +6017,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H76" s="6">
         <v>13760</v>
@@ -6016,10 +6029,10 @@
         <v>20000</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L76" s="6">
         <v>-6.8791954000000004</v>
@@ -6028,7 +6041,7 @@
         <v>113.9732791</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -6042,13 +6055,13 @@
     </row>
     <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="D77" s="7">
         <v>0.33333333333333331</v>
@@ -6057,10 +6070,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H77" s="6">
         <v>1382</v>
@@ -6069,10 +6082,10 @@
         <v>5000</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L77" s="6">
         <v>-6.9178648000000003</v>
@@ -6081,7 +6094,7 @@
         <v>114.06506760000001</v>
       </c>
       <c r="N77" s="12" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -6095,13 +6108,13 @@
     </row>
     <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="D78" s="7">
         <v>0</v>
@@ -6110,10 +6123,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H78" s="6">
         <v>313</v>
@@ -6122,10 +6135,10 @@
         <v>5000</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L78" s="6">
         <v>-7.1751702999999996</v>
@@ -6134,7 +6147,7 @@
         <v>113.9218159</v>
       </c>
       <c r="N78" s="12" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -6148,13 +6161,13 @@
     </row>
     <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="D79" s="7">
         <v>0</v>
@@ -6163,10 +6176,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H79" s="6">
         <v>8000</v>
@@ -6175,10 +6188,10 @@
         <v>20000</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L79" s="6">
         <v>-6.8861093999999996</v>
@@ -6187,7 +6200,7 @@
         <v>113.792343</v>
       </c>
       <c r="N79" s="12" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -6201,13 +6214,13 @@
     </row>
     <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>307</v>
+        <v>494</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="D80" s="7">
         <v>0</v>
@@ -6216,10 +6229,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H80" s="6">
         <v>12939</v>
@@ -6228,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L80" s="6">
         <v>-6.8703621999999998</v>
@@ -6240,7 +6253,7 @@
         <v>113.9243001</v>
       </c>
       <c r="N80" s="12" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -6254,13 +6267,13 @@
     </row>
     <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>310</v>
+        <v>495</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="D81" s="7">
         <v>0.29166666666666669</v>
@@ -6269,10 +6282,10 @@
         <v>0.875</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H81" s="6">
         <v>2645</v>
@@ -6281,10 +6294,10 @@
         <v>0</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L81" s="6">
         <v>-6.9705250000000003</v>
@@ -6293,7 +6306,7 @@
         <v>114.09578260000001</v>
       </c>
       <c r="N81" s="12" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -6307,13 +6320,13 @@
     </row>
     <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>313</v>
+        <v>496</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="D82" s="7">
         <v>0.25</v>
@@ -6322,10 +6335,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H82" s="6">
         <v>179253</v>
@@ -6334,10 +6347,10 @@
         <v>10000</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L82" s="6">
         <v>-7.0789985</v>
@@ -6346,7 +6359,7 @@
         <v>113.8262843</v>
       </c>
       <c r="N82" s="12" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -6360,13 +6373,13 @@
     </row>
     <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="D83" s="7">
         <v>0.20833333333333334</v>
@@ -6375,10 +6388,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="H83" s="6">
         <v>60687</v>
@@ -6387,10 +6400,10 @@
         <v>10000</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L83" s="6">
         <v>-7.0108300999999997</v>
@@ -6399,7 +6412,7 @@
         <v>113.8637779</v>
       </c>
       <c r="N83" s="12" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -6413,13 +6426,13 @@
     </row>
     <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="D84" s="7">
         <v>0.29166666666666669</v>
@@ -6428,10 +6441,10 @@
         <v>0.91597222222222219</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="H84" s="6">
         <v>2000</v>
@@ -6440,10 +6453,10 @@
         <v>10000</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L84" s="6">
         <v>-7.0152004999999997</v>
@@ -6452,7 +6465,7 @@
         <v>138.16391999999999</v>
       </c>
       <c r="N84" s="12" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -6466,13 +6479,13 @@
     </row>
     <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="D85" s="7">
         <v>0.29166666666666669</v>
@@ -6481,10 +6494,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="H85" s="6">
         <v>24733</v>
@@ -6493,10 +6506,10 @@
         <v>10000</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L85" s="6">
         <v>-7.0141752000000004</v>
@@ -6505,7 +6518,7 @@
         <v>113.82199230000001</v>
       </c>
       <c r="N85" s="12" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -6519,13 +6532,13 @@
     </row>
     <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="D86" s="7">
         <v>0.33333333333333331</v>
@@ -6534,10 +6547,10 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>395</v>
+        <v>484</v>
       </c>
       <c r="H86" s="6">
         <v>432</v>
@@ -6546,10 +6559,10 @@
         <v>0</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="L86" s="6">
         <v>-6.9902442999999996</v>
@@ -6558,7 +6571,7 @@
         <v>113.8408225</v>
       </c>
       <c r="N86" s="12" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -6572,13 +6585,13 @@
     </row>
     <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>333</v>
+        <v>497</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="D87" s="7">
         <v>0.25</v>
@@ -6587,10 +6600,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H87" s="6">
         <v>764640</v>
@@ -6599,10 +6612,10 @@
         <v>5000</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="L87" s="6">
         <v>-7.0071139000000002</v>
@@ -6611,7 +6624,7 @@
         <v>113.7999978</v>
       </c>
       <c r="N87" s="12" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -6625,13 +6638,13 @@
     </row>
     <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="D88" s="7">
         <v>0</v>
@@ -6640,10 +6653,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>81</v>
+        <v>482</v>
       </c>
       <c r="H88" s="6">
         <v>538223</v>
@@ -6652,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L88" s="6">
         <v>-7.0082554000000004</v>
@@ -6664,7 +6677,7 @@
         <v>113.8602317</v>
       </c>
       <c r="N88" s="12" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -6678,13 +6691,13 @@
     </row>
     <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="D89" s="7">
         <v>0</v>
@@ -6693,10 +6706,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H89" s="6">
         <v>47939</v>
@@ -6705,10 +6718,10 @@
         <v>10000</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L89" s="6">
         <v>-7.0280481999999997</v>
@@ -6717,7 +6730,7 @@
         <v>113.8956754</v>
       </c>
       <c r="N89" s="12" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -6731,13 +6744,13 @@
     </row>
     <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="D90" s="7">
         <v>0</v>
@@ -6746,10 +6759,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H90" s="6">
         <v>10651</v>
@@ -6758,10 +6771,10 @@
         <v>10000</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L90" s="6">
         <v>-6.9746915999999999</v>
@@ -6770,7 +6783,7 @@
         <v>113.91422420000001</v>
       </c>
       <c r="N90" s="12" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -6784,13 +6797,13 @@
     </row>
     <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="D91" s="7">
         <v>0</v>
@@ -6799,10 +6812,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H91" s="6">
         <v>5185</v>
@@ -6811,10 +6824,10 @@
         <v>10000</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L91" s="6">
         <v>-7.0460323999999996</v>
@@ -6823,7 +6836,7 @@
         <v>113.75626889999999</v>
       </c>
       <c r="N91" s="12" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -6837,13 +6850,13 @@
     </row>
     <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="D92" s="7">
         <v>0</v>
@@ -6852,10 +6865,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H92" s="6">
         <v>5873</v>
@@ -6864,10 +6877,10 @@
         <v>10000</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L92" s="6">
         <v>-6.9958302999999997</v>
@@ -6876,7 +6889,7 @@
         <v>113.8718064</v>
       </c>
       <c r="N92" s="12" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -6890,13 +6903,13 @@
     </row>
     <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="D93" s="7">
         <v>0</v>
@@ -6905,10 +6918,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H93" s="6">
         <v>14600</v>
@@ -6917,10 +6930,10 @@
         <v>10000</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L93" s="6">
         <v>-6.8858085000000004</v>
@@ -6929,7 +6942,7 @@
         <v>113.6614774</v>
       </c>
       <c r="N93" s="12" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -6943,13 +6956,13 @@
     </row>
     <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="D94" s="7">
         <v>0</v>
@@ -6958,10 +6971,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H94" s="6">
         <v>112676</v>
@@ -6970,10 +6983,10 @@
         <v>10000</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L94" s="6">
         <v>-7.0654506000000001</v>
@@ -6982,7 +6995,7 @@
         <v>113.9424303</v>
       </c>
       <c r="N94" s="12" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -6996,13 +7009,13 @@
     </row>
     <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="D95" s="7">
         <v>0</v>
@@ -7011,10 +7024,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H95" s="6">
         <v>2000</v>
@@ -7023,10 +7036,10 @@
         <v>10000</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L95" s="6">
         <v>-6.9966328000000004</v>
@@ -7035,7 +7048,7 @@
         <v>113.8435034</v>
       </c>
       <c r="N95" s="12" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -7049,13 +7062,13 @@
     </row>
     <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="D96" s="7">
         <v>0</v>
@@ -7064,10 +7077,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>27</v>
+        <v>479</v>
       </c>
       <c r="H96" s="6">
         <v>5000</v>
@@ -7076,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L96" s="6">
         <v>-7.0080780999999996</v>
@@ -7088,7 +7101,7 @@
         <v>113.85922789999999</v>
       </c>
       <c r="N96" s="12" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -7102,13 +7115,13 @@
     </row>
     <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="D97" s="7">
         <v>0.29166666666666669</v>
@@ -7117,10 +7130,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H97" s="6">
         <v>2673</v>
@@ -7129,10 +7142,10 @@
         <v>15000</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L97" s="6">
         <v>-7.0081176000000003</v>
@@ -7141,7 +7154,7 @@
         <v>113.8628659</v>
       </c>
       <c r="N97" s="12" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -7155,13 +7168,13 @@
     </row>
     <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="D98" s="7">
         <v>0</v>
@@ -7170,10 +7183,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H98" s="6">
         <v>140509</v>
@@ -7182,10 +7195,10 @@
         <v>300000</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L98" s="6">
         <v>-6.9028644000000003</v>
@@ -7194,7 +7207,7 @@
         <v>114.02179</v>
       </c>
       <c r="N98" s="12" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -7208,13 +7221,13 @@
     </row>
     <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="D99" s="7">
         <v>0</v>
@@ -7223,10 +7236,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H99" s="6">
         <v>2467</v>
@@ -7235,10 +7248,10 @@
         <v>5000</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L99" s="6">
         <v>-7.1205553999999998</v>
@@ -7247,7 +7260,7 @@
         <v>114.33305559999999</v>
       </c>
       <c r="N99" s="12" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -7261,13 +7274,13 @@
     </row>
     <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="D100" s="7">
         <v>0</v>
@@ -7276,10 +7289,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H100" s="6">
         <v>2571</v>
@@ -7288,10 +7301,10 @@
         <v>0</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="L100" s="6">
         <v>-7.0456190999999997</v>
@@ -7300,7 +7313,7 @@
         <v>113.9593936</v>
       </c>
       <c r="N100" s="12" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -7314,13 +7327,13 @@
     </row>
     <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>381</v>
+        <v>498</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="D101" s="7">
         <v>0</v>
@@ -7329,10 +7342,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>60</v>
+        <v>481</v>
       </c>
       <c r="H101" s="6">
         <v>11620000</v>
@@ -7341,10 +7354,10 @@
         <v>5000</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L101" s="6">
         <v>-6.9935248999999997</v>
@@ -7353,7 +7366,7 @@
         <v>114.1735705</v>
       </c>
       <c r="N101" s="12" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -7367,13 +7380,13 @@
     </row>
     <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="D102" s="7">
         <v>0</v>
@@ -7382,10 +7395,10 @@
         <v>0.99930555555555556</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H102" s="6">
         <v>5223</v>
@@ -7394,10 +7407,10 @@
         <v>0</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L102" s="6">
         <v>-7.1751702999999996</v>
@@ -7406,7 +7419,7 @@
         <v>113.9218159</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -7420,13 +7433,13 @@
     </row>
     <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D103" s="7">
         <v>0.29166666666666669</v>
@@ -7435,10 +7448,10 @@
         <v>0.875</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H103" s="6">
         <v>44688</v>
@@ -7447,10 +7460,10 @@
         <v>10000</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L103" s="6">
         <v>-7.1049290000000003</v>
@@ -7459,7 +7472,7 @@
         <v>113.88752839999999</v>
       </c>
       <c r="N103" s="12" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -7473,13 +7486,13 @@
     </row>
     <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="D104" s="7">
         <v>0.25</v>
@@ -7488,10 +7501,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>36</v>
+        <v>480</v>
       </c>
       <c r="H104" s="6">
         <v>5836</v>
@@ -7500,10 +7513,10 @@
         <v>10000</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L104" s="6">
         <v>-7.0077316999999999</v>
@@ -7512,7 +7525,7 @@
         <v>113.79997849999999</v>
       </c>
       <c r="N104" s="12" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
